--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_15_28.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_15_28.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>735499.1479008698</v>
+        <v>731487.3451687736</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>6432656.96014034</v>
+        <v>6432656.960140343</v>
       </c>
     </row>
     <row r="9">
@@ -1369,16 +1369,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>310.392855573488</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E11" t="n">
-        <v>266.1996316214327</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -1420,22 +1420,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>58.04236988161365</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>210.0177446442482</v>
       </c>
       <c r="U11" t="n">
         <v>255.612391572116</v>
       </c>
       <c r="V11" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C13" t="n">
         <v>170.2528374898731</v>
@@ -1536,13 +1536,13 @@
         <v>161.683605144497</v>
       </c>
       <c r="E13" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G13" t="n">
-        <v>163.7030512222169</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>134.4334047779237</v>
@@ -1575,25 +1575,25 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>6.48994447064856</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>152.8999186087154</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>237.097464026797</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>277.3339849899809</v>
       </c>
       <c r="V13" t="n">
         <v>278.8943527180514</v>
       </c>
       <c r="W13" t="n">
-        <v>121.8176315983711</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X13" t="n">
-        <v>240.1382575886529</v>
+        <v>111.8927534731417</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1609,19 +1609,19 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E14" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>398.3085625684984</v>
       </c>
       <c r="H14" t="n">
         <v>274.5392124624013</v>
@@ -1657,25 +1657,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>58.04236988161365</v>
       </c>
       <c r="T14" t="n">
         <v>210.0177446442482</v>
       </c>
       <c r="U14" t="n">
-        <v>4.989997059774653</v>
+        <v>255.612391572116</v>
       </c>
       <c r="V14" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>407.6027988439302</v>
+        <v>35.85364311108694</v>
       </c>
       <c r="Y14" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1764,16 +1764,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>42.98405109533184</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D16" t="n">
         <v>161.683605144497</v>
       </c>
       <c r="E16" t="n">
-        <v>164.546123788675</v>
+        <v>87.20225975990249</v>
       </c>
       <c r="F16" t="n">
         <v>170.1431564831852</v>
@@ -1782,7 +1782,7 @@
         <v>163.7030512222169</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>134.4334047779237</v>
       </c>
       <c r="I16" t="n">
         <v>71.96559361603954</v>
@@ -1812,10 +1812,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>6.48994447064856</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>152.8999186087154</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -1824,13 +1824,13 @@
         <v>277.3339849899809</v>
       </c>
       <c r="V16" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>272.1038797892121</v>
       </c>
       <c r="X16" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>224.0793406271554</v>
@@ -1846,22 +1846,22 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D17" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F17" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>274.5392124624013</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1894,10 +1894,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>58.04236988161365</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>210.0177446442482</v>
       </c>
       <c r="U17" t="n">
         <v>255.612391572116</v>
@@ -1906,13 +1906,13 @@
         <v>353.914520725013</v>
       </c>
       <c r="W17" t="n">
-        <v>223.321897292516</v>
+        <v>77.59020910780092</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -2013,16 +2013,16 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>88.90678768227339</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>163.7030512222169</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>71.96559361603954</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2052,10 +2052,10 @@
         <v>6.489944470648567</v>
       </c>
       <c r="S19" t="n">
-        <v>152.8999186087154</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>237.097464026797</v>
+        <v>19.15618485237382</v>
       </c>
       <c r="U19" t="n">
         <v>277.3339849899809</v>
@@ -2070,7 +2070,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="20">
@@ -2092,10 +2092,10 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>387.5916185220673</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>398.3085625684984</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2134,16 +2134,16 @@
         <v>58.04236988161365</v>
       </c>
       <c r="T20" t="n">
-        <v>210.0177446442482</v>
+        <v>62.48575596727662</v>
       </c>
       <c r="U20" t="n">
-        <v>255.612391572116</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>353.914520725013</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X20" t="n">
         <v>407.6027988439302</v>
@@ -2241,22 +2241,22 @@
         <v>188.264309024945</v>
       </c>
       <c r="C22" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>134.4334047779237</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>6.48994447064856</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>152.8999186087154</v>
@@ -2301,13 +2301,13 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W22" t="n">
-        <v>196.4645436828106</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X22" t="n">
         <v>240.1382575886529</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>122.7566135261832</v>
       </c>
     </row>
     <row r="23">
@@ -2317,25 +2317,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C23" t="n">
-        <v>408.3739987939974</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>398.3085625684984</v>
+        <v>305.2019032474203</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>274.5392124624013</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2374,10 +2374,10 @@
         <v>210.0177446442482</v>
       </c>
       <c r="U23" t="n">
-        <v>255.612391572116</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
@@ -2493,7 +2493,7 @@
         <v>163.7030512222169</v>
       </c>
       <c r="H25" t="n">
-        <v>134.4334047779238</v>
+        <v>134.4334047779237</v>
       </c>
       <c r="I25" t="n">
         <v>71.96559361603954</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>6.48994447064856</v>
+        <v>6.48994447064862</v>
       </c>
       <c r="S25" t="n">
         <v>152.8999186087154</v>
@@ -2557,7 +2557,7 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D26" t="n">
         <v>419.0596946068497</v>
@@ -2566,13 +2566,13 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G26" t="n">
         <v>398.3085625684984</v>
       </c>
       <c r="H26" t="n">
-        <v>274.5392124624013</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2608,22 +2608,22 @@
         <v>58.04236988161365</v>
       </c>
       <c r="T26" t="n">
-        <v>210.0177446442482</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>255.612391572116</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>73.91267179363871</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>371.8612551377361</v>
       </c>
       <c r="X26" t="n">
         <v>407.6027988439302</v>
       </c>
       <c r="Y26" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>6.48994447064856</v>
+        <v>6.48994447064862</v>
       </c>
       <c r="S28" t="n">
         <v>152.8999186087154</v>
@@ -2794,16 +2794,16 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C29" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>382.4889529487078</v>
+        <v>7.899480786656054</v>
       </c>
       <c r="E29" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G29" t="n">
         <v>398.3085625684984</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>58.04236988161365</v>
       </c>
       <c r="T29" t="n">
         <v>210.0177446442482</v>
@@ -2851,16 +2851,16 @@
         <v>255.612391572116</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X29" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="30">
@@ -2967,7 +2967,7 @@
         <v>163.7030512222169</v>
       </c>
       <c r="H31" t="n">
-        <v>134.4334047779238</v>
+        <v>134.4334047779237</v>
       </c>
       <c r="I31" t="n">
         <v>71.96559361603954</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>6.48994447064856</v>
+        <v>6.48994447064862</v>
       </c>
       <c r="S31" t="n">
         <v>152.8999186087154</v>
@@ -3028,19 +3028,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C32" t="n">
         <v>422.6317226868329</v>
       </c>
       <c r="D32" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -3091,13 +3091,13 @@
         <v>353.914520725013</v>
       </c>
       <c r="W32" t="n">
-        <v>307.2282446334638</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>401.2838973446586</v>
+        <v>320.3387501948278</v>
       </c>
     </row>
     <row r="33">
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>6.48994447064856</v>
+        <v>6.489944470648567</v>
       </c>
       <c r="S34" t="n">
         <v>152.8999186087154</v>
@@ -3265,25 +3265,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D35" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>416.6022356372071</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G35" t="n">
         <v>398.3085625684984</v>
       </c>
       <c r="H35" t="n">
-        <v>274.5392124624013</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3322,16 +3322,16 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>220.6405523269544</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -3432,19 +3432,19 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G37" t="n">
-        <v>73.82326425552995</v>
+        <v>102.9960977757314</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>71.96559361603954</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3480,7 +3480,7 @@
         <v>237.097464026797</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>277.3339849899809</v>
       </c>
       <c r="V37" t="n">
         <v>278.8943527180514</v>
@@ -3489,7 +3489,7 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X37" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>224.0793406271554</v>
@@ -3502,19 +3502,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>389.7838137938496</v>
       </c>
       <c r="C38" t="n">
-        <v>396.4480796640688</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -3553,22 +3553,22 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>58.04236988161365</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>210.0177446442482</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>255.612391572116</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -3669,13 +3669,13 @@
         <v>161.683605144497</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F40" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>96.76865037260391</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3708,16 +3708,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>6.48994447064856</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>152.8999186087154</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>209.1157395887104</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>277.3339849899809</v>
       </c>
       <c r="V40" t="n">
         <v>278.8943527180514</v>
@@ -3739,19 +3739,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C41" t="n">
         <v>422.6317226868329</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E41" t="n">
         <v>421.717170453621</v>
       </c>
       <c r="F41" t="n">
-        <v>420.8729399924937</v>
+        <v>395.0068731377286</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -3790,10 +3790,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>58.04236988161364</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>210.0177446442482</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -3805,10 +3805,10 @@
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>139.4994965301794</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3897,7 +3897,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C43" t="n">
         <v>170.2528374898731</v>
@@ -3906,19 +3906,19 @@
         <v>161.683605144497</v>
       </c>
       <c r="E43" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G43" t="n">
-        <v>163.7030512222169</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>134.4334047779237</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>71.96559361603953</v>
+        <v>71.96559361603954</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3948,22 +3948,22 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>152.8999186087154</v>
       </c>
       <c r="T43" t="n">
-        <v>237.097464026797</v>
+        <v>143.6400904433198</v>
       </c>
       <c r="U43" t="n">
-        <v>277.3339849899809</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>26.72289957809129</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W43" t="n">
         <v>272.1038797892121</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y43" t="n">
         <v>224.0793406271554</v>
@@ -3976,25 +3976,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C44" t="n">
-        <v>422.6317226868329</v>
+        <v>32.1605075210954</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E44" t="n">
-        <v>34.04039772544311</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
         <v>398.3085625684984</v>
       </c>
       <c r="H44" t="n">
-        <v>274.5392124624013</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4027,13 +4027,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>58.04236988161364</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>210.0177446442482</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>255.612391572116</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -4042,10 +4042,10 @@
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="45">
@@ -4134,28 +4134,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E46" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F46" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>163.7030512222169</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>134.4334047779237</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>71.96559361603953</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,16 +4182,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>6.48994447064856</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>152.8999186087154</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>237.097464026797</v>
+        <v>96.76865037260428</v>
       </c>
       <c r="U46" t="n">
-        <v>197.7091114050269</v>
+        <v>277.3339849899809</v>
       </c>
       <c r="V46" t="n">
         <v>278.8943527180514</v>
@@ -4200,7 +4200,7 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y46" t="n">
         <v>224.0793406271554</v>
@@ -5017,13 +5017,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>713.9758164675382</v>
+        <v>1295.280650479912</v>
       </c>
       <c r="C11" t="n">
-        <v>713.9758164675382</v>
+        <v>868.3799204932119</v>
       </c>
       <c r="D11" t="n">
-        <v>713.9758164675382</v>
+        <v>445.0872996782122</v>
       </c>
       <c r="E11" t="n">
         <v>445.0872996782122</v>
@@ -5038,28 +5038,28 @@
         <v>42.75541829589048</v>
       </c>
       <c r="I11" t="n">
-        <v>84.39494262103617</v>
+        <v>84.39494262103619</v>
       </c>
       <c r="J11" t="n">
-        <v>222.2360596072046</v>
+        <v>222.2360596072047</v>
       </c>
       <c r="K11" t="n">
-        <v>437.0691715610006</v>
+        <v>437.0691715610005</v>
       </c>
       <c r="L11" t="n">
-        <v>709.5851800848325</v>
+        <v>709.5851800848322</v>
       </c>
       <c r="M11" t="n">
-        <v>1017.95803136565</v>
+        <v>1017.958031365649</v>
       </c>
       <c r="N11" t="n">
         <v>1332.070421635641</v>
       </c>
       <c r="O11" t="n">
-        <v>1626.510864636165</v>
+        <v>1626.510864636164</v>
       </c>
       <c r="P11" t="n">
-        <v>1872.202557977127</v>
+        <v>1872.202557977126</v>
       </c>
       <c r="Q11" t="n">
         <v>2048.8787162726</v>
@@ -5068,25 +5068,25 @@
         <v>2137.770914794524</v>
       </c>
       <c r="S11" t="n">
-        <v>2137.770914794524</v>
+        <v>2079.14225834845</v>
       </c>
       <c r="T11" t="n">
-        <v>2137.770914794524</v>
+        <v>1867.003122344158</v>
       </c>
       <c r="U11" t="n">
-        <v>1879.576579873195</v>
+        <v>1608.808787422829</v>
       </c>
       <c r="V11" t="n">
-        <v>1522.087164999444</v>
+        <v>1608.808787422829</v>
       </c>
       <c r="W11" t="n">
-        <v>1125.695815299791</v>
+        <v>1608.808787422829</v>
       </c>
       <c r="X11" t="n">
-        <v>713.9758164675382</v>
+        <v>1608.808787422829</v>
       </c>
       <c r="Y11" t="n">
-        <v>713.9758164675382</v>
+        <v>1608.808787422829</v>
       </c>
     </row>
     <row r="12">
@@ -5120,16 +5120,16 @@
         <v>62.98439029745217</v>
       </c>
       <c r="J12" t="n">
-        <v>142.0237151377162</v>
+        <v>404.465909142654</v>
       </c>
       <c r="K12" t="n">
-        <v>289.8146695059645</v>
+        <v>552.2568635109022</v>
       </c>
       <c r="L12" t="n">
-        <v>496.0652591283643</v>
+        <v>758.5074531333021</v>
       </c>
       <c r="M12" t="n">
-        <v>739.8954600838658</v>
+        <v>1002.337654088804</v>
       </c>
       <c r="N12" t="n">
         <v>1254.962719722999</v>
@@ -5175,19 +5175,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1089.955188520548</v>
+        <v>758.3903652772225</v>
       </c>
       <c r="C13" t="n">
-        <v>917.9826253994637</v>
+        <v>586.4178021561385</v>
       </c>
       <c r="D13" t="n">
-        <v>754.6658525262344</v>
+        <v>423.1010292829092</v>
       </c>
       <c r="E13" t="n">
-        <v>588.4576466790879</v>
+        <v>423.1010292829092</v>
       </c>
       <c r="F13" t="n">
-        <v>416.5958724536483</v>
+        <v>251.2392550574696</v>
       </c>
       <c r="G13" t="n">
         <v>251.2392550574696</v>
@@ -5199,52 +5199,52 @@
         <v>42.75541829589048</v>
       </c>
       <c r="J13" t="n">
-        <v>84.71320548484809</v>
+        <v>162.634922133069</v>
       </c>
       <c r="K13" t="n">
-        <v>166.4811349991142</v>
+        <v>244.4028516473351</v>
       </c>
       <c r="L13" t="n">
-        <v>415.8032076563076</v>
+        <v>353.897341839383</v>
       </c>
       <c r="M13" t="n">
-        <v>944.9015090679522</v>
+        <v>882.9956432510278</v>
       </c>
       <c r="N13" t="n">
-        <v>1059.396764209472</v>
+        <v>1395.523821234428</v>
       </c>
       <c r="O13" t="n">
-        <v>1539.553111280806</v>
+        <v>1875.680168305762</v>
       </c>
       <c r="P13" t="n">
-        <v>1936.87886150226</v>
+        <v>2088.252358880159</v>
       </c>
       <c r="Q13" t="n">
         <v>2137.770914794524</v>
       </c>
       <c r="R13" t="n">
-        <v>2131.215415329222</v>
+        <v>2137.770914794524</v>
       </c>
       <c r="S13" t="n">
-        <v>1976.771053098196</v>
+        <v>2137.770914794524</v>
       </c>
       <c r="T13" t="n">
-        <v>1737.278665192341</v>
+        <v>1898.278526888668</v>
       </c>
       <c r="U13" t="n">
-        <v>1737.278665192341</v>
+        <v>1618.14318851495</v>
       </c>
       <c r="V13" t="n">
-        <v>1455.56719780037</v>
+        <v>1336.431721122979</v>
       </c>
       <c r="W13" t="n">
-        <v>1332.519085074742</v>
+        <v>1061.579317295492</v>
       </c>
       <c r="X13" t="n">
-        <v>1089.955188520548</v>
+        <v>948.5563339892881</v>
       </c>
       <c r="Y13" t="n">
-        <v>1089.955188520548</v>
+        <v>948.5563339892881</v>
       </c>
     </row>
     <row r="14">
@@ -5254,19 +5254,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>746.0446939686403</v>
+        <v>1572.592986300519</v>
       </c>
       <c r="C14" t="n">
-        <v>746.0446939686403</v>
+        <v>1145.692256313819</v>
       </c>
       <c r="D14" t="n">
-        <v>746.0446939686403</v>
+        <v>722.3996354988195</v>
       </c>
       <c r="E14" t="n">
-        <v>320.0677541164978</v>
+        <v>722.3996354988195</v>
       </c>
       <c r="F14" t="n">
-        <v>320.0677541164978</v>
+        <v>722.3996354988195</v>
       </c>
       <c r="G14" t="n">
         <v>320.0677541164978</v>
@@ -5278,13 +5278,13 @@
         <v>84.39494262103608</v>
       </c>
       <c r="J14" t="n">
-        <v>222.2360596072047</v>
+        <v>222.2360596072044</v>
       </c>
       <c r="K14" t="n">
-        <v>437.0691715610005</v>
+        <v>437.0691715610004</v>
       </c>
       <c r="L14" t="n">
-        <v>709.5851800848324</v>
+        <v>709.5851800848322</v>
       </c>
       <c r="M14" t="n">
         <v>1017.958031365649</v>
@@ -5305,25 +5305,25 @@
         <v>2137.770914794524</v>
       </c>
       <c r="S14" t="n">
-        <v>2137.770914794524</v>
+        <v>2079.14225834845</v>
       </c>
       <c r="T14" t="n">
-        <v>1925.631778790233</v>
+        <v>1867.003122344158</v>
       </c>
       <c r="U14" t="n">
-        <v>1920.591377719753</v>
+        <v>1608.808787422829</v>
       </c>
       <c r="V14" t="n">
-        <v>1563.101962846003</v>
+        <v>1608.808787422829</v>
       </c>
       <c r="W14" t="n">
-        <v>1563.101962846003</v>
+        <v>1608.808787422829</v>
       </c>
       <c r="X14" t="n">
-        <v>1151.38196401375</v>
+        <v>1572.592986300519</v>
       </c>
       <c r="Y14" t="n">
-        <v>746.0446939686403</v>
+        <v>1572.592986300519</v>
       </c>
     </row>
     <row r="15">
@@ -5354,28 +5354,28 @@
         <v>42.75541829589048</v>
       </c>
       <c r="I15" t="n">
-        <v>62.98439029745217</v>
+        <v>86.44169614186401</v>
       </c>
       <c r="J15" t="n">
-        <v>142.0237151377162</v>
+        <v>299.0104088577481</v>
       </c>
       <c r="K15" t="n">
-        <v>289.8146695059645</v>
+        <v>446.8013632259964</v>
       </c>
       <c r="L15" t="n">
-        <v>496.0652591283643</v>
+        <v>653.0519528483962</v>
       </c>
       <c r="M15" t="n">
-        <v>739.8954600838658</v>
+        <v>896.8821538038977</v>
       </c>
       <c r="N15" t="n">
-        <v>992.5205257180613</v>
+        <v>1149.507219438093</v>
       </c>
       <c r="O15" t="n">
-        <v>1220.01238974092</v>
+        <v>1376.999083460952</v>
       </c>
       <c r="P15" t="n">
-        <v>1399.453043391742</v>
+        <v>1556.439737111774</v>
       </c>
       <c r="Q15" t="n">
         <v>1668.279192602594</v>
@@ -5412,22 +5412,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>782.1913074419649</v>
+        <v>1011.830073339969</v>
       </c>
       <c r="C16" t="n">
-        <v>782.1913074419649</v>
+        <v>839.8575102188854</v>
       </c>
       <c r="D16" t="n">
-        <v>618.8745345687356</v>
+        <v>676.5407373456561</v>
       </c>
       <c r="E16" t="n">
-        <v>452.6663287215891</v>
+        <v>588.4576466790879</v>
       </c>
       <c r="F16" t="n">
-        <v>280.8045544961495</v>
+        <v>416.5958724536483</v>
       </c>
       <c r="G16" t="n">
-        <v>115.4479370999708</v>
+        <v>251.2392550574696</v>
       </c>
       <c r="H16" t="n">
         <v>115.4479370999708</v>
@@ -5439,16 +5439,16 @@
         <v>162.634922133069</v>
       </c>
       <c r="K16" t="n">
-        <v>244.4028516473351</v>
+        <v>491.6854607613571</v>
       </c>
       <c r="L16" t="n">
-        <v>415.8032076563076</v>
+        <v>601.1799509534052</v>
       </c>
       <c r="M16" t="n">
-        <v>944.9015090679522</v>
+        <v>1130.27825236505</v>
       </c>
       <c r="N16" t="n">
-        <v>1059.396764209472</v>
+        <v>1244.77350750657</v>
       </c>
       <c r="O16" t="n">
         <v>1539.553111280806</v>
@@ -5460,28 +5460,28 @@
         <v>2137.770914794524</v>
       </c>
       <c r="R16" t="n">
-        <v>2131.215415329222</v>
+        <v>2137.770914794524</v>
       </c>
       <c r="S16" t="n">
-        <v>2131.215415329222</v>
+        <v>1983.326552563498</v>
       </c>
       <c r="T16" t="n">
-        <v>2131.215415329222</v>
+        <v>1983.326552563498</v>
       </c>
       <c r="U16" t="n">
-        <v>1851.080076955504</v>
+        <v>1703.19121418978</v>
       </c>
       <c r="V16" t="n">
-        <v>1569.368609563533</v>
+        <v>1703.19121418978</v>
       </c>
       <c r="W16" t="n">
-        <v>1294.516205736046</v>
+        <v>1428.338810362293</v>
       </c>
       <c r="X16" t="n">
-        <v>1051.952309181851</v>
+        <v>1428.338810362293</v>
       </c>
       <c r="Y16" t="n">
-        <v>825.609540871593</v>
+        <v>1201.996042052035</v>
       </c>
     </row>
     <row r="17">
@@ -5491,22 +5491,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>891.17222092149</v>
+        <v>1172.94542395534</v>
       </c>
       <c r="C17" t="n">
-        <v>891.17222092149</v>
+        <v>746.0446939686403</v>
       </c>
       <c r="D17" t="n">
-        <v>467.8796001064903</v>
+        <v>746.0446939686403</v>
       </c>
       <c r="E17" t="n">
-        <v>467.8796001064903</v>
+        <v>320.0677541164978</v>
       </c>
       <c r="F17" t="n">
-        <v>42.75541829589048</v>
+        <v>320.0677541164978</v>
       </c>
       <c r="G17" t="n">
-        <v>42.75541829589048</v>
+        <v>320.0677541164978</v>
       </c>
       <c r="H17" t="n">
         <v>42.75541829589048</v>
@@ -5542,25 +5542,25 @@
         <v>2137.770914794524</v>
       </c>
       <c r="S17" t="n">
-        <v>2137.770914794524</v>
+        <v>2079.14225834845</v>
       </c>
       <c r="T17" t="n">
-        <v>2137.770914794524</v>
+        <v>1867.003122344158</v>
       </c>
       <c r="U17" t="n">
-        <v>1879.576579873195</v>
+        <v>1608.808787422829</v>
       </c>
       <c r="V17" t="n">
-        <v>1522.087164999444</v>
+        <v>1251.319372549078</v>
       </c>
       <c r="W17" t="n">
-        <v>1296.5094909666</v>
+        <v>1172.94542395534</v>
       </c>
       <c r="X17" t="n">
-        <v>1296.5094909666</v>
+        <v>1172.94542395534</v>
       </c>
       <c r="Y17" t="n">
-        <v>891.17222092149</v>
+        <v>1172.94542395534</v>
       </c>
     </row>
     <row r="18">
@@ -5594,28 +5594,28 @@
         <v>86.44169614186401</v>
       </c>
       <c r="J18" t="n">
-        <v>404.465909142654</v>
+        <v>299.0104088577481</v>
       </c>
       <c r="K18" t="n">
-        <v>552.2568635109022</v>
+        <v>446.8013632259964</v>
       </c>
       <c r="L18" t="n">
-        <v>758.5074531333021</v>
+        <v>653.0519528483962</v>
       </c>
       <c r="M18" t="n">
-        <v>1002.337654088804</v>
+        <v>896.8821538038977</v>
       </c>
       <c r="N18" t="n">
-        <v>1254.962719722999</v>
+        <v>1149.507219438093</v>
       </c>
       <c r="O18" t="n">
-        <v>1482.454583745858</v>
+        <v>1376.999083460952</v>
       </c>
       <c r="P18" t="n">
-        <v>1661.89523739668</v>
+        <v>1556.439737111774</v>
       </c>
       <c r="Q18" t="n">
-        <v>1773.7346928875</v>
+        <v>1668.279192602594</v>
       </c>
       <c r="R18" t="n">
         <v>1815.649874842555</v>
@@ -5649,49 +5649,49 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>467.8495903329041</v>
+        <v>616.0938904904629</v>
       </c>
       <c r="C19" t="n">
-        <v>295.8770272118202</v>
+        <v>444.1213273693788</v>
       </c>
       <c r="D19" t="n">
-        <v>132.5602543385909</v>
+        <v>280.8045544961495</v>
       </c>
       <c r="E19" t="n">
-        <v>132.5602543385909</v>
+        <v>280.8045544961495</v>
       </c>
       <c r="F19" t="n">
-        <v>42.75541829589048</v>
+        <v>280.8045544961495</v>
       </c>
       <c r="G19" t="n">
-        <v>42.75541829589048</v>
+        <v>115.4479370999708</v>
       </c>
       <c r="H19" t="n">
-        <v>42.75541829589048</v>
+        <v>115.4479370999708</v>
       </c>
       <c r="I19" t="n">
         <v>42.75541829589048</v>
       </c>
       <c r="J19" t="n">
-        <v>84.71320548484809</v>
+        <v>162.634922133069</v>
       </c>
       <c r="K19" t="n">
-        <v>413.7637441131362</v>
+        <v>491.6854607613571</v>
       </c>
       <c r="L19" t="n">
-        <v>899.6471278963492</v>
+        <v>977.5688445445701</v>
       </c>
       <c r="M19" t="n">
-        <v>1428.745429307994</v>
+        <v>1093.544903181524</v>
       </c>
       <c r="N19" t="n">
-        <v>1543.240684449514</v>
+        <v>1208.040158323044</v>
       </c>
       <c r="O19" t="n">
-        <v>1690.926608658705</v>
+        <v>1539.553111280806</v>
       </c>
       <c r="P19" t="n">
-        <v>2088.252358880159</v>
+        <v>1936.87886150226</v>
       </c>
       <c r="Q19" t="n">
         <v>2137.770914794524</v>
@@ -5700,25 +5700,25 @@
         <v>2131.215415329222</v>
       </c>
       <c r="S19" t="n">
-        <v>1976.771053098196</v>
+        <v>2131.215415329222</v>
       </c>
       <c r="T19" t="n">
-        <v>1737.278665192341</v>
+        <v>2111.865733660158</v>
       </c>
       <c r="U19" t="n">
-        <v>1457.143326818623</v>
+        <v>1831.730395286439</v>
       </c>
       <c r="V19" t="n">
-        <v>1175.431859426652</v>
+        <v>1550.018927894468</v>
       </c>
       <c r="W19" t="n">
-        <v>900.5794555991647</v>
+        <v>1275.166524066981</v>
       </c>
       <c r="X19" t="n">
-        <v>658.0155590449698</v>
+        <v>1032.602627512787</v>
       </c>
       <c r="Y19" t="n">
-        <v>658.0155590449698</v>
+        <v>806.2598592025286</v>
       </c>
     </row>
     <row r="20">
@@ -5728,19 +5728,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>434.2621036717161</v>
+        <v>445.0872996782122</v>
       </c>
       <c r="C20" t="n">
-        <v>434.2621036717161</v>
+        <v>445.0872996782122</v>
       </c>
       <c r="D20" t="n">
-        <v>434.2621036717161</v>
+        <v>445.0872996782122</v>
       </c>
       <c r="E20" t="n">
-        <v>434.2621036717161</v>
+        <v>445.0872996782122</v>
       </c>
       <c r="F20" t="n">
-        <v>42.75541829589048</v>
+        <v>445.0872996782122</v>
       </c>
       <c r="G20" t="n">
         <v>42.75541829589048</v>
@@ -5749,7 +5749,7 @@
         <v>42.75541829589048</v>
       </c>
       <c r="I20" t="n">
-        <v>84.39494262103608</v>
+        <v>84.39494262103619</v>
       </c>
       <c r="J20" t="n">
         <v>222.2360596072047</v>
@@ -5758,7 +5758,7 @@
         <v>437.0691715610005</v>
       </c>
       <c r="L20" t="n">
-        <v>709.5851800848324</v>
+        <v>709.5851800848322</v>
       </c>
       <c r="M20" t="n">
         <v>1017.958031365649</v>
@@ -5782,22 +5782,22 @@
         <v>2079.14225834845</v>
       </c>
       <c r="T20" t="n">
-        <v>1867.003122344158</v>
+        <v>2016.025333128978</v>
       </c>
       <c r="U20" t="n">
-        <v>1608.808787422829</v>
+        <v>2016.025333128978</v>
       </c>
       <c r="V20" t="n">
-        <v>1251.319372549078</v>
+        <v>1658.535918255228</v>
       </c>
       <c r="W20" t="n">
-        <v>1251.319372549078</v>
+        <v>1262.144568555575</v>
       </c>
       <c r="X20" t="n">
-        <v>839.5993737168258</v>
+        <v>850.4245697233218</v>
       </c>
       <c r="Y20" t="n">
-        <v>434.2621036717161</v>
+        <v>445.0872996782122</v>
       </c>
     </row>
     <row r="21">
@@ -5828,31 +5828,31 @@
         <v>42.75541829589048</v>
       </c>
       <c r="I21" t="n">
-        <v>62.98439029745217</v>
+        <v>86.44169614186401</v>
       </c>
       <c r="J21" t="n">
-        <v>142.0237151377162</v>
+        <v>299.0104088577481</v>
       </c>
       <c r="K21" t="n">
-        <v>289.8146695059645</v>
+        <v>446.8013632259964</v>
       </c>
       <c r="L21" t="n">
-        <v>496.0652591283643</v>
+        <v>653.0519528483962</v>
       </c>
       <c r="M21" t="n">
-        <v>739.8954600838658</v>
+        <v>896.8821538038977</v>
       </c>
       <c r="N21" t="n">
-        <v>1254.962719722999</v>
+        <v>1149.507219438093</v>
       </c>
       <c r="O21" t="n">
-        <v>1482.454583745858</v>
+        <v>1376.999083460952</v>
       </c>
       <c r="P21" t="n">
-        <v>1661.89523739668</v>
+        <v>1556.439737111774</v>
       </c>
       <c r="Q21" t="n">
-        <v>1773.7346928875</v>
+        <v>1668.279192602594</v>
       </c>
       <c r="R21" t="n">
         <v>1815.649874842555</v>
@@ -5886,22 +5886,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>544.2529601373502</v>
+        <v>350.4085104788288</v>
       </c>
       <c r="C22" t="n">
-        <v>372.2803970162662</v>
+        <v>350.4085104788288</v>
       </c>
       <c r="D22" t="n">
-        <v>208.9636241430369</v>
+        <v>350.4085104788288</v>
       </c>
       <c r="E22" t="n">
-        <v>42.75541829589048</v>
+        <v>350.4085104788288</v>
       </c>
       <c r="F22" t="n">
-        <v>42.75541829589048</v>
+        <v>178.5467362533892</v>
       </c>
       <c r="G22" t="n">
-        <v>42.75541829589048</v>
+        <v>178.5467362533892</v>
       </c>
       <c r="H22" t="n">
         <v>42.75541829589048</v>
@@ -5913,16 +5913,16 @@
         <v>162.634922133069</v>
       </c>
       <c r="K22" t="n">
-        <v>244.4028516473351</v>
+        <v>491.6854607613571</v>
       </c>
       <c r="L22" t="n">
-        <v>730.2862354305481</v>
+        <v>977.5688445445701</v>
       </c>
       <c r="M22" t="n">
-        <v>846.2622940675017</v>
+        <v>1093.544903181524</v>
       </c>
       <c r="N22" t="n">
-        <v>1358.790472050902</v>
+        <v>1208.040158323044</v>
       </c>
       <c r="O22" t="n">
         <v>1539.553111280806</v>
@@ -5934,28 +5934,28 @@
         <v>2137.770914794524</v>
       </c>
       <c r="R22" t="n">
-        <v>2131.215415329222</v>
+        <v>2137.770914794524</v>
       </c>
       <c r="S22" t="n">
-        <v>1976.771053098196</v>
+        <v>1983.326552563498</v>
       </c>
       <c r="T22" t="n">
-        <v>1737.278665192341</v>
+        <v>1743.834164657643</v>
       </c>
       <c r="U22" t="n">
-        <v>1457.143326818623</v>
+        <v>1463.698826283925</v>
       </c>
       <c r="V22" t="n">
-        <v>1175.431859426652</v>
+        <v>1181.987358891953</v>
       </c>
       <c r="W22" t="n">
-        <v>976.9828254036107</v>
+        <v>907.1349550644663</v>
       </c>
       <c r="X22" t="n">
-        <v>734.4189288494158</v>
+        <v>664.5710585102714</v>
       </c>
       <c r="Y22" t="n">
-        <v>734.4189288494158</v>
+        <v>540.5744791908944</v>
       </c>
     </row>
     <row r="23">
@@ -5965,22 +5965,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1300.025742955289</v>
+        <v>1495.861128458839</v>
       </c>
       <c r="C23" t="n">
-        <v>887.5267542744834</v>
+        <v>1068.960398472139</v>
       </c>
       <c r="D23" t="n">
-        <v>887.5267542744834</v>
+        <v>645.6677776571394</v>
       </c>
       <c r="E23" t="n">
-        <v>887.5267542744834</v>
+        <v>645.6677776571394</v>
       </c>
       <c r="F23" t="n">
-        <v>462.4025724638836</v>
+        <v>645.6677776571394</v>
       </c>
       <c r="G23" t="n">
-        <v>60.07069108156194</v>
+        <v>337.3830269021693</v>
       </c>
       <c r="H23" t="n">
         <v>60.07069108156194</v>
@@ -5989,28 +5989,28 @@
         <v>101.7102154067077</v>
       </c>
       <c r="J23" t="n">
-        <v>486.826681479221</v>
+        <v>631.2805511005022</v>
       </c>
       <c r="K23" t="n">
-        <v>701.6597934330168</v>
+        <v>846.1136630542981</v>
       </c>
       <c r="L23" t="n">
-        <v>974.1758019568487</v>
+        <v>1575.348819368405</v>
       </c>
       <c r="M23" t="n">
-        <v>1282.548653237666</v>
+        <v>1883.721670649222</v>
       </c>
       <c r="N23" t="n">
-        <v>1596.661043507657</v>
+        <v>2197.834060919214</v>
       </c>
       <c r="O23" t="n">
-        <v>2340.035845641986</v>
+        <v>2492.274503919738</v>
       </c>
       <c r="P23" t="n">
-        <v>2585.727538982948</v>
+        <v>2737.9661972607</v>
       </c>
       <c r="Q23" t="n">
-        <v>2762.403697278422</v>
+        <v>2914.642355556173</v>
       </c>
       <c r="R23" t="n">
         <v>3003.534554078097</v>
@@ -6022,19 +6022,19 @@
         <v>2732.766761627731</v>
       </c>
       <c r="U23" t="n">
-        <v>2474.572426706402</v>
+        <v>2732.766761627731</v>
       </c>
       <c r="V23" t="n">
-        <v>2117.083011832651</v>
+        <v>2732.766761627731</v>
       </c>
       <c r="W23" t="n">
-        <v>2117.083011832651</v>
+        <v>2732.766761627731</v>
       </c>
       <c r="X23" t="n">
-        <v>1705.363013000398</v>
+        <v>2321.046762795479</v>
       </c>
       <c r="Y23" t="n">
-        <v>1300.025742955289</v>
+        <v>1915.709492750369</v>
       </c>
     </row>
     <row r="24">
@@ -6065,31 +6065,31 @@
         <v>60.07069108156194</v>
       </c>
       <c r="I24" t="n">
-        <v>80.29966308312362</v>
+        <v>103.7569689275355</v>
       </c>
       <c r="J24" t="n">
-        <v>421.7811819283253</v>
+        <v>316.3256816434195</v>
       </c>
       <c r="K24" t="n">
-        <v>569.5721362965736</v>
+        <v>464.1166360116678</v>
       </c>
       <c r="L24" t="n">
-        <v>775.8227259189734</v>
+        <v>670.3672256340676</v>
       </c>
       <c r="M24" t="n">
-        <v>1019.652926874475</v>
+        <v>914.1974265895691</v>
       </c>
       <c r="N24" t="n">
-        <v>1272.27799250867</v>
+        <v>1166.822492223765</v>
       </c>
       <c r="O24" t="n">
-        <v>1499.76985653153</v>
+        <v>1394.314356246624</v>
       </c>
       <c r="P24" t="n">
-        <v>1679.210510182351</v>
+        <v>1573.755009897445</v>
       </c>
       <c r="Q24" t="n">
-        <v>1791.049965673171</v>
+        <v>1685.594465388265</v>
       </c>
       <c r="R24" t="n">
         <v>1832.965147628227</v>
@@ -6150,7 +6150,7 @@
         <v>179.9501949187404</v>
       </c>
       <c r="K25" t="n">
-        <v>397.2373026266567</v>
+        <v>509.0007335470286</v>
       </c>
       <c r="L25" t="n">
         <v>883.1206864098697</v>
@@ -6202,22 +6202,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1163.007529099491</v>
+        <v>1737.720105076183</v>
       </c>
       <c r="C26" t="n">
-        <v>1163.007529099491</v>
+        <v>1310.819375089483</v>
       </c>
       <c r="D26" t="n">
-        <v>739.714908284491</v>
+        <v>887.5267542744834</v>
       </c>
       <c r="E26" t="n">
-        <v>739.714908284491</v>
+        <v>887.5267542744834</v>
       </c>
       <c r="F26" t="n">
-        <v>739.714908284491</v>
+        <v>462.4025724638836</v>
       </c>
       <c r="G26" t="n">
-        <v>337.3830269021693</v>
+        <v>60.07069108156194</v>
       </c>
       <c r="H26" t="n">
         <v>60.07069108156194</v>
@@ -6226,28 +6226,28 @@
         <v>101.7102154067077</v>
       </c>
       <c r="J26" t="n">
-        <v>239.5513323928761</v>
+        <v>631.2805511005022</v>
       </c>
       <c r="K26" t="n">
-        <v>454.384444346672</v>
+        <v>846.1136630542981</v>
       </c>
       <c r="L26" t="n">
-        <v>726.9004528705038</v>
+        <v>1118.62967157813</v>
       </c>
       <c r="M26" t="n">
-        <v>1035.273304151321</v>
+        <v>1427.002522858947</v>
       </c>
       <c r="N26" t="n">
-        <v>1705.985153556479</v>
+        <v>1741.114913128938</v>
       </c>
       <c r="O26" t="n">
-        <v>2000.425596557002</v>
+        <v>2035.555356129462</v>
       </c>
       <c r="P26" t="n">
-        <v>2246.117289897964</v>
+        <v>2281.247049470424</v>
       </c>
       <c r="Q26" t="n">
-        <v>2914.642355556173</v>
+        <v>2762.403697278422</v>
       </c>
       <c r="R26" t="n">
         <v>3003.534554078097</v>
@@ -6256,22 +6256,22 @@
         <v>2944.905897632023</v>
       </c>
       <c r="T26" t="n">
-        <v>2732.766761627731</v>
+        <v>2944.905897632023</v>
       </c>
       <c r="U26" t="n">
-        <v>2474.572426706402</v>
+        <v>2944.905897632023</v>
       </c>
       <c r="V26" t="n">
-        <v>2399.913162268383</v>
+        <v>2944.905897632023</v>
       </c>
       <c r="W26" t="n">
-        <v>2399.913162268383</v>
+        <v>2569.288468199966</v>
       </c>
       <c r="X26" t="n">
-        <v>1988.19316343613</v>
+        <v>2157.568469367713</v>
       </c>
       <c r="Y26" t="n">
-        <v>1582.855893391021</v>
+        <v>2157.568469367713</v>
       </c>
     </row>
     <row r="27">
@@ -6308,25 +6308,25 @@
         <v>159.3389879233877</v>
       </c>
       <c r="K27" t="n">
-        <v>307.129942291636</v>
+        <v>569.5721362965736</v>
       </c>
       <c r="L27" t="n">
-        <v>513.3805319140358</v>
+        <v>775.8227259189734</v>
       </c>
       <c r="M27" t="n">
-        <v>757.2107328695372</v>
+        <v>1019.652926874475</v>
       </c>
       <c r="N27" t="n">
-        <v>1009.835798503733</v>
+        <v>1272.27799250867</v>
       </c>
       <c r="O27" t="n">
-        <v>1237.327662526592</v>
+        <v>1499.76985653153</v>
       </c>
       <c r="P27" t="n">
-        <v>1573.755009897445</v>
+        <v>1679.210510182351</v>
       </c>
       <c r="Q27" t="n">
-        <v>1685.594465388265</v>
+        <v>1791.049965673171</v>
       </c>
       <c r="R27" t="n">
         <v>1832.965147628227</v>
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1107.27046130622</v>
+        <v>1107.270461306219</v>
       </c>
       <c r="C28" t="n">
-        <v>935.2978981851355</v>
+        <v>935.2978981851352</v>
       </c>
       <c r="D28" t="n">
-        <v>771.9811253119062</v>
+        <v>771.9811253119059</v>
       </c>
       <c r="E28" t="n">
-        <v>605.7729194647598</v>
+        <v>605.7729194647594</v>
       </c>
       <c r="F28" t="n">
-        <v>433.9111452393203</v>
+        <v>433.9111452393198</v>
       </c>
       <c r="G28" t="n">
-        <v>268.5545278431414</v>
+        <v>268.554527843141</v>
       </c>
       <c r="H28" t="n">
-        <v>132.7632098856425</v>
+        <v>132.7632098856423</v>
       </c>
       <c r="I28" t="n">
         <v>60.07069108156194</v>
@@ -6387,7 +6387,7 @@
         <v>179.9501949187404</v>
       </c>
       <c r="K28" t="n">
-        <v>397.2373026266567</v>
+        <v>509.0007335470286</v>
       </c>
       <c r="L28" t="n">
         <v>883.1206864098697</v>
@@ -6408,13 +6408,13 @@
         <v>3003.534554078097</v>
       </c>
       <c r="R28" t="n">
-        <v>2996.979054612796</v>
+        <v>2996.979054612795</v>
       </c>
       <c r="S28" t="n">
         <v>2842.53469238177</v>
       </c>
       <c r="T28" t="n">
-        <v>2603.042304475915</v>
+        <v>2603.042304475914</v>
       </c>
       <c r="U28" t="n">
         <v>2322.906966102196</v>
@@ -6439,16 +6439,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1701.632720028693</v>
+        <v>895.5060277963582</v>
       </c>
       <c r="C29" t="n">
-        <v>1274.731990041994</v>
+        <v>895.5060277963582</v>
       </c>
       <c r="D29" t="n">
-        <v>888.3795123160261</v>
+        <v>887.5267542744834</v>
       </c>
       <c r="E29" t="n">
-        <v>462.4025724638836</v>
+        <v>887.5267542744834</v>
       </c>
       <c r="F29" t="n">
         <v>462.4025724638836</v>
@@ -6463,7 +6463,7 @@
         <v>101.7102154067077</v>
       </c>
       <c r="J29" t="n">
-        <v>559.4580087102443</v>
+        <v>631.2805511005022</v>
       </c>
       <c r="K29" t="n">
         <v>1302.832810844573</v>
@@ -6490,25 +6490,25 @@
         <v>3003.534554078097</v>
       </c>
       <c r="S29" t="n">
-        <v>3003.534554078097</v>
+        <v>2944.905897632023</v>
       </c>
       <c r="T29" t="n">
-        <v>2791.395418073806</v>
+        <v>2732.766761627731</v>
       </c>
       <c r="U29" t="n">
-        <v>2533.201083152476</v>
+        <v>2474.572426706402</v>
       </c>
       <c r="V29" t="n">
-        <v>2533.201083152476</v>
+        <v>2117.083011832651</v>
       </c>
       <c r="W29" t="n">
-        <v>2533.201083152476</v>
+        <v>1720.691662132998</v>
       </c>
       <c r="X29" t="n">
-        <v>2121.481084320224</v>
+        <v>1720.691662132998</v>
       </c>
       <c r="Y29" t="n">
-        <v>2121.481084320224</v>
+        <v>1315.354392087888</v>
       </c>
     </row>
     <row r="30">
@@ -6539,28 +6539,28 @@
         <v>60.07069108156194</v>
       </c>
       <c r="I30" t="n">
-        <v>80.29966308312362</v>
+        <v>103.7569689275355</v>
       </c>
       <c r="J30" t="n">
-        <v>159.3389879233877</v>
+        <v>182.7962937677995</v>
       </c>
       <c r="K30" t="n">
-        <v>307.129942291636</v>
+        <v>330.5872481360478</v>
       </c>
       <c r="L30" t="n">
-        <v>513.3805319140358</v>
+        <v>536.8378377584476</v>
       </c>
       <c r="M30" t="n">
-        <v>757.2107328695372</v>
+        <v>780.668038713949</v>
       </c>
       <c r="N30" t="n">
-        <v>1009.835798503733</v>
+        <v>1033.293104348145</v>
       </c>
       <c r="O30" t="n">
-        <v>1237.327662526592</v>
+        <v>1260.784968371004</v>
       </c>
       <c r="P30" t="n">
-        <v>1573.755009897445</v>
+        <v>1440.225622021826</v>
       </c>
       <c r="Q30" t="n">
         <v>1685.594465388265</v>
@@ -6627,13 +6627,13 @@
         <v>509.0007335470286</v>
       </c>
       <c r="L31" t="n">
-        <v>994.8841173302417</v>
+        <v>994.8841173302415</v>
       </c>
       <c r="M31" t="n">
-        <v>1524.395656430017</v>
+        <v>1412.632225509645</v>
       </c>
       <c r="N31" t="n">
-        <v>2036.923834413417</v>
+        <v>1925.160403493045</v>
       </c>
       <c r="O31" t="n">
         <v>2405.316750564379</v>
@@ -6676,16 +6676,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1613.553317556011</v>
+        <v>1189.407938699469</v>
       </c>
       <c r="C32" t="n">
-        <v>1186.652587569311</v>
+        <v>762.5072087127692</v>
       </c>
       <c r="D32" t="n">
-        <v>763.3599667543117</v>
+        <v>762.5072087127692</v>
       </c>
       <c r="E32" t="n">
-        <v>337.3830269021693</v>
+        <v>762.5072087127692</v>
       </c>
       <c r="F32" t="n">
         <v>337.3830269021693</v>
@@ -6700,22 +6700,22 @@
         <v>101.7102154067077</v>
       </c>
       <c r="J32" t="n">
-        <v>239.5513323928761</v>
+        <v>559.4580087102443</v>
       </c>
       <c r="K32" t="n">
-        <v>982.926134527205</v>
+        <v>1302.832810844573</v>
       </c>
       <c r="L32" t="n">
-        <v>1255.442143051037</v>
+        <v>1575.348819368405</v>
       </c>
       <c r="M32" t="n">
-        <v>1563.814994331854</v>
+        <v>1883.721670649222</v>
       </c>
       <c r="N32" t="n">
-        <v>1877.927384601845</v>
+        <v>2197.834060919214</v>
       </c>
       <c r="O32" t="n">
-        <v>2172.367827602369</v>
+        <v>2492.274503919738</v>
       </c>
       <c r="P32" t="n">
         <v>2737.9661972607</v>
@@ -6739,13 +6739,13 @@
         <v>2329.222147836943</v>
       </c>
       <c r="W32" t="n">
-        <v>2018.890587601121</v>
+        <v>1932.83079813729</v>
       </c>
       <c r="X32" t="n">
-        <v>2018.890587601121</v>
+        <v>1932.83079813729</v>
       </c>
       <c r="Y32" t="n">
-        <v>1613.553317556011</v>
+        <v>1609.256302990999</v>
       </c>
     </row>
     <row r="33">
@@ -6776,25 +6776,25 @@
         <v>60.07069108156194</v>
       </c>
       <c r="I33" t="n">
-        <v>80.29966308312362</v>
+        <v>103.7569689275355</v>
       </c>
       <c r="J33" t="n">
-        <v>159.3389879233877</v>
+        <v>316.3256816434195</v>
       </c>
       <c r="K33" t="n">
-        <v>307.129942291636</v>
+        <v>464.1166360116678</v>
       </c>
       <c r="L33" t="n">
-        <v>513.3805319140358</v>
+        <v>670.3672256340676</v>
       </c>
       <c r="M33" t="n">
-        <v>757.2107328695372</v>
+        <v>914.1974265895691</v>
       </c>
       <c r="N33" t="n">
-        <v>1009.835798503733</v>
+        <v>1166.822492223765</v>
       </c>
       <c r="O33" t="n">
-        <v>1237.327662526592</v>
+        <v>1394.314356246624</v>
       </c>
       <c r="P33" t="n">
         <v>1573.755009897445</v>
@@ -6834,61 +6834,61 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1107.270461306219</v>
+        <v>1107.27046130622</v>
       </c>
       <c r="C34" t="n">
-        <v>935.2978981851351</v>
+        <v>935.2978981851355</v>
       </c>
       <c r="D34" t="n">
-        <v>771.9811253119058</v>
+        <v>771.9811253119062</v>
       </c>
       <c r="E34" t="n">
-        <v>605.7729194647593</v>
+        <v>605.7729194647598</v>
       </c>
       <c r="F34" t="n">
-        <v>433.9111452393198</v>
+        <v>433.9111452393203</v>
       </c>
       <c r="G34" t="n">
-        <v>268.554527843141</v>
+        <v>268.5545278431414</v>
       </c>
       <c r="H34" t="n">
-        <v>132.7632098856423</v>
+        <v>132.7632098856425</v>
       </c>
       <c r="I34" t="n">
         <v>60.07069108156194</v>
       </c>
       <c r="J34" t="n">
-        <v>102.0284782705196</v>
+        <v>179.9501949187404</v>
       </c>
       <c r="K34" t="n">
-        <v>431.0790168988078</v>
+        <v>509.0007335470286</v>
       </c>
       <c r="L34" t="n">
-        <v>916.9624006820208</v>
+        <v>994.8841173302415</v>
       </c>
       <c r="M34" t="n">
-        <v>1412.632225509645</v>
+        <v>1524.395656430017</v>
       </c>
       <c r="N34" t="n">
-        <v>1925.160403493045</v>
+        <v>2036.923834413417</v>
       </c>
       <c r="O34" t="n">
-        <v>2405.316750564379</v>
+        <v>2517.08018148475</v>
       </c>
       <c r="P34" t="n">
-        <v>2802.642500785833</v>
+        <v>2914.405931706205</v>
       </c>
       <c r="Q34" t="n">
         <v>3003.534554078097</v>
       </c>
       <c r="R34" t="n">
-        <v>2996.979054612795</v>
+        <v>2996.979054612796</v>
       </c>
       <c r="S34" t="n">
         <v>2842.53469238177</v>
       </c>
       <c r="T34" t="n">
-        <v>2603.042304475914</v>
+        <v>2603.042304475915</v>
       </c>
       <c r="U34" t="n">
         <v>2322.906966102196</v>
@@ -6913,22 +6913,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1145.692256313819</v>
+        <v>1717.922550502994</v>
       </c>
       <c r="C35" t="n">
-        <v>1145.692256313819</v>
+        <v>1291.021820516294</v>
       </c>
       <c r="D35" t="n">
-        <v>722.3996354988195</v>
+        <v>1291.021820516294</v>
       </c>
       <c r="E35" t="n">
-        <v>722.3996354988195</v>
+        <v>870.211481488812</v>
       </c>
       <c r="F35" t="n">
-        <v>722.3996354988195</v>
+        <v>445.0872996782122</v>
       </c>
       <c r="G35" t="n">
-        <v>320.0677541164978</v>
+        <v>42.75541829589048</v>
       </c>
       <c r="H35" t="n">
         <v>42.75541829589048</v>
@@ -6937,16 +6937,16 @@
         <v>84.39494262103608</v>
       </c>
       <c r="J35" t="n">
-        <v>222.2360596072047</v>
+        <v>222.2360596072044</v>
       </c>
       <c r="K35" t="n">
-        <v>437.0691715610006</v>
+        <v>437.0691715610004</v>
       </c>
       <c r="L35" t="n">
-        <v>709.5851800848325</v>
+        <v>709.5851800848322</v>
       </c>
       <c r="M35" t="n">
-        <v>1017.95803136565</v>
+        <v>1017.958031365649</v>
       </c>
       <c r="N35" t="n">
         <v>1332.070421635641</v>
@@ -6970,19 +6970,19 @@
         <v>2137.770914794524</v>
       </c>
       <c r="U35" t="n">
-        <v>1914.901670019822</v>
+        <v>2137.770914794524</v>
       </c>
       <c r="V35" t="n">
-        <v>1557.412255146072</v>
+        <v>2137.770914794524</v>
       </c>
       <c r="W35" t="n">
-        <v>1557.412255146072</v>
+        <v>2137.770914794524</v>
       </c>
       <c r="X35" t="n">
-        <v>1145.692256313819</v>
+        <v>2137.770914794524</v>
       </c>
       <c r="Y35" t="n">
-        <v>1145.692256313819</v>
+        <v>2137.770914794524</v>
       </c>
     </row>
     <row r="36">
@@ -7013,31 +7013,31 @@
         <v>42.75541829589048</v>
       </c>
       <c r="I36" t="n">
-        <v>62.98439029745217</v>
+        <v>86.44169614186401</v>
       </c>
       <c r="J36" t="n">
-        <v>404.4659091426539</v>
+        <v>299.0104088577481</v>
       </c>
       <c r="K36" t="n">
-        <v>552.2568635109022</v>
+        <v>446.8013632259964</v>
       </c>
       <c r="L36" t="n">
-        <v>758.5074531333021</v>
+        <v>653.0519528483962</v>
       </c>
       <c r="M36" t="n">
-        <v>1002.337654088804</v>
+        <v>896.8821538038977</v>
       </c>
       <c r="N36" t="n">
-        <v>1254.962719722999</v>
+        <v>1149.507219438093</v>
       </c>
       <c r="O36" t="n">
-        <v>1482.454583745858</v>
+        <v>1376.999083460952</v>
       </c>
       <c r="P36" t="n">
-        <v>1661.89523739668</v>
+        <v>1556.439737111774</v>
       </c>
       <c r="Q36" t="n">
-        <v>1773.7346928875</v>
+        <v>1668.279192602594</v>
       </c>
       <c r="R36" t="n">
         <v>1815.649874842555</v>
@@ -7071,43 +7071,43 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>528.1976598616659</v>
+        <v>490.6262180421427</v>
       </c>
       <c r="C37" t="n">
-        <v>356.2250967405819</v>
+        <v>318.6536549210588</v>
       </c>
       <c r="D37" t="n">
-        <v>356.2250967405819</v>
+        <v>318.6536549210588</v>
       </c>
       <c r="E37" t="n">
-        <v>190.0168908934354</v>
+        <v>318.6536549210588</v>
       </c>
       <c r="F37" t="n">
-        <v>190.0168908934354</v>
+        <v>146.7918806956192</v>
       </c>
       <c r="G37" t="n">
-        <v>115.4479370999708</v>
+        <v>42.75541829589048</v>
       </c>
       <c r="H37" t="n">
-        <v>115.4479370999708</v>
+        <v>42.75541829589048</v>
       </c>
       <c r="I37" t="n">
         <v>42.75541829589048</v>
       </c>
       <c r="J37" t="n">
-        <v>162.634922133069</v>
+        <v>84.71320548484809</v>
       </c>
       <c r="K37" t="n">
-        <v>491.6854607613572</v>
+        <v>166.4811349991142</v>
       </c>
       <c r="L37" t="n">
-        <v>977.5688445445702</v>
+        <v>481.8999867656338</v>
       </c>
       <c r="M37" t="n">
-        <v>1093.544903181524</v>
+        <v>1010.998288177278</v>
       </c>
       <c r="N37" t="n">
-        <v>1606.073081164924</v>
+        <v>1523.526466160679</v>
       </c>
       <c r="O37" t="n">
         <v>2003.682813232012</v>
@@ -7128,19 +7128,19 @@
         <v>1743.834164657643</v>
       </c>
       <c r="U37" t="n">
-        <v>1743.834164657643</v>
+        <v>1463.698826283925</v>
       </c>
       <c r="V37" t="n">
-        <v>1462.122697265671</v>
+        <v>1181.987358891953</v>
       </c>
       <c r="W37" t="n">
-        <v>1187.270293438184</v>
+        <v>907.1349550644663</v>
       </c>
       <c r="X37" t="n">
-        <v>944.7063968839894</v>
+        <v>907.1349550644663</v>
       </c>
       <c r="Y37" t="n">
-        <v>718.3636285737315</v>
+        <v>680.7921867542084</v>
       </c>
     </row>
     <row r="38">
@@ -7150,43 +7150,43 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>443.2080240171721</v>
+        <v>1744.049890760332</v>
       </c>
       <c r="C38" t="n">
-        <v>42.75541829589047</v>
+        <v>1317.149160773633</v>
       </c>
       <c r="D38" t="n">
-        <v>42.75541829589047</v>
+        <v>893.8565399586328</v>
       </c>
       <c r="E38" t="n">
-        <v>42.75541829589047</v>
+        <v>467.8796001064903</v>
       </c>
       <c r="F38" t="n">
-        <v>42.75541829589047</v>
+        <v>42.75541829589048</v>
       </c>
       <c r="G38" t="n">
-        <v>42.75541829589047</v>
+        <v>42.75541829589048</v>
       </c>
       <c r="H38" t="n">
-        <v>42.75541829589047</v>
+        <v>42.75541829589048</v>
       </c>
       <c r="I38" t="n">
-        <v>84.39494262103617</v>
+        <v>84.39494262103608</v>
       </c>
       <c r="J38" t="n">
-        <v>222.2360596072046</v>
+        <v>222.2360596072044</v>
       </c>
       <c r="K38" t="n">
-        <v>437.0691715610001</v>
+        <v>437.0691715610003</v>
       </c>
       <c r="L38" t="n">
-        <v>709.585180084832</v>
+        <v>709.5851800848321</v>
       </c>
       <c r="M38" t="n">
         <v>1017.958031365649</v>
       </c>
       <c r="N38" t="n">
-        <v>1332.07042163564</v>
+        <v>1332.070421635641</v>
       </c>
       <c r="O38" t="n">
         <v>1626.510864636164</v>
@@ -7198,28 +7198,28 @@
         <v>2048.8787162726</v>
       </c>
       <c r="R38" t="n">
-        <v>2137.770914794523</v>
+        <v>2137.770914794524</v>
       </c>
       <c r="S38" t="n">
-        <v>2079.142258348449</v>
+        <v>2137.770914794524</v>
       </c>
       <c r="T38" t="n">
-        <v>1867.003122344158</v>
+        <v>2137.770914794524</v>
       </c>
       <c r="U38" t="n">
-        <v>1608.808787422829</v>
+        <v>2137.770914794524</v>
       </c>
       <c r="V38" t="n">
-        <v>1251.319372549078</v>
+        <v>2137.770914794524</v>
       </c>
       <c r="W38" t="n">
-        <v>854.9280228494249</v>
+        <v>2137.770914794524</v>
       </c>
       <c r="X38" t="n">
-        <v>443.2080240171721</v>
+        <v>2137.770914794524</v>
       </c>
       <c r="Y38" t="n">
-        <v>443.2080240171721</v>
+        <v>2137.770914794524</v>
       </c>
     </row>
     <row r="39">
@@ -7247,34 +7247,34 @@
         <v>85.75954558772929</v>
       </c>
       <c r="H39" t="n">
-        <v>42.75541829589047</v>
+        <v>42.75541829589048</v>
       </c>
       <c r="I39" t="n">
-        <v>62.98439029745215</v>
+        <v>86.44169614186401</v>
       </c>
       <c r="J39" t="n">
-        <v>142.0237151377162</v>
+        <v>299.0104088577481</v>
       </c>
       <c r="K39" t="n">
-        <v>289.8146695059645</v>
+        <v>446.8013632259964</v>
       </c>
       <c r="L39" t="n">
-        <v>496.0652591283643</v>
+        <v>653.0519528483962</v>
       </c>
       <c r="M39" t="n">
-        <v>739.8954600838658</v>
+        <v>896.8821538038977</v>
       </c>
       <c r="N39" t="n">
-        <v>992.5205257180613</v>
+        <v>1149.507219438093</v>
       </c>
       <c r="O39" t="n">
-        <v>1482.454583745858</v>
+        <v>1376.999083460952</v>
       </c>
       <c r="P39" t="n">
-        <v>1661.89523739668</v>
+        <v>1556.439737111774</v>
       </c>
       <c r="Q39" t="n">
-        <v>1773.7346928875</v>
+        <v>1668.279192602594</v>
       </c>
       <c r="R39" t="n">
         <v>1815.649874842555</v>
@@ -7308,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>549.9065285156433</v>
+        <v>641.999071624829</v>
       </c>
       <c r="C40" t="n">
-        <v>377.9339653945593</v>
+        <v>470.0265085037449</v>
       </c>
       <c r="D40" t="n">
-        <v>214.6171925213301</v>
+        <v>306.7097356305156</v>
       </c>
       <c r="E40" t="n">
-        <v>214.6171925213301</v>
+        <v>140.5015297833692</v>
       </c>
       <c r="F40" t="n">
-        <v>42.75541829589047</v>
+        <v>140.5015297833692</v>
       </c>
       <c r="G40" t="n">
-        <v>42.75541829589047</v>
+        <v>42.75541829589048</v>
       </c>
       <c r="H40" t="n">
-        <v>42.75541829589047</v>
+        <v>42.75541829589048</v>
       </c>
       <c r="I40" t="n">
-        <v>42.75541829589047</v>
+        <v>42.75541829589048</v>
       </c>
       <c r="J40" t="n">
         <v>162.634922133069</v>
@@ -7344,40 +7344,40 @@
         <v>1093.544903181524</v>
       </c>
       <c r="N40" t="n">
-        <v>1372.152968782779</v>
+        <v>1208.040158323044</v>
       </c>
       <c r="O40" t="n">
-        <v>1852.309315854113</v>
+        <v>1539.553111280806</v>
       </c>
       <c r="P40" t="n">
-        <v>1936.878861502259</v>
+        <v>1936.87886150226</v>
       </c>
       <c r="Q40" t="n">
-        <v>2137.770914794523</v>
+        <v>2137.770914794524</v>
       </c>
       <c r="R40" t="n">
-        <v>2131.215415329222</v>
+        <v>2137.770914794524</v>
       </c>
       <c r="S40" t="n">
-        <v>1976.771053098196</v>
+        <v>2137.770914794524</v>
       </c>
       <c r="T40" t="n">
-        <v>1765.54303331162</v>
+        <v>2137.770914794524</v>
       </c>
       <c r="U40" t="n">
-        <v>1765.54303331162</v>
+        <v>1857.635576420806</v>
       </c>
       <c r="V40" t="n">
-        <v>1483.831565919649</v>
+        <v>1575.924109028834</v>
       </c>
       <c r="W40" t="n">
-        <v>1208.979162092162</v>
+        <v>1301.071705201347</v>
       </c>
       <c r="X40" t="n">
-        <v>966.4152655379669</v>
+        <v>1058.507808647153</v>
       </c>
       <c r="Y40" t="n">
-        <v>740.0724972277089</v>
+        <v>832.1650403368947</v>
       </c>
     </row>
     <row r="41">
@@ -7387,28 +7387,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1320.757269945333</v>
+        <v>1717.922550502994</v>
       </c>
       <c r="C41" t="n">
-        <v>893.8565399586328</v>
+        <v>1291.021820516294</v>
       </c>
       <c r="D41" t="n">
-        <v>893.8565399586328</v>
+        <v>867.7291997012942</v>
       </c>
       <c r="E41" t="n">
-        <v>467.8796001064903</v>
+        <v>441.7522598491518</v>
       </c>
       <c r="F41" t="n">
-        <v>42.75541829589049</v>
+        <v>42.75541829589048</v>
       </c>
       <c r="G41" t="n">
-        <v>42.75541829589049</v>
+        <v>42.75541829589048</v>
       </c>
       <c r="H41" t="n">
-        <v>42.75541829589049</v>
+        <v>42.75541829589048</v>
       </c>
       <c r="I41" t="n">
-        <v>84.39494262103619</v>
+        <v>84.39494262103631</v>
       </c>
       <c r="J41" t="n">
         <v>222.2360596072047</v>
@@ -7417,10 +7417,10 @@
         <v>437.0691715610005</v>
       </c>
       <c r="L41" t="n">
-        <v>709.5851800848325</v>
+        <v>709.5851800848322</v>
       </c>
       <c r="M41" t="n">
-        <v>1017.95803136565</v>
+        <v>1017.958031365649</v>
       </c>
       <c r="N41" t="n">
         <v>1332.070421635641</v>
@@ -7432,31 +7432,31 @@
         <v>1872.202557977127</v>
       </c>
       <c r="Q41" t="n">
-        <v>2048.878716272601</v>
+        <v>2048.8787162726</v>
       </c>
       <c r="R41" t="n">
         <v>2137.770914794524</v>
       </c>
       <c r="S41" t="n">
-        <v>2079.14225834845</v>
+        <v>2137.770914794524</v>
       </c>
       <c r="T41" t="n">
-        <v>1867.003122344159</v>
+        <v>2137.770914794524</v>
       </c>
       <c r="U41" t="n">
-        <v>1867.003122344159</v>
+        <v>2137.770914794524</v>
       </c>
       <c r="V41" t="n">
-        <v>1867.003122344159</v>
+        <v>2137.770914794524</v>
       </c>
       <c r="W41" t="n">
-        <v>1867.003122344159</v>
+        <v>2137.770914794524</v>
       </c>
       <c r="X41" t="n">
-        <v>1726.094539990442</v>
+        <v>2137.770914794524</v>
       </c>
       <c r="Y41" t="n">
-        <v>1320.757269945333</v>
+        <v>2137.770914794524</v>
       </c>
     </row>
     <row r="42">
@@ -7484,34 +7484,34 @@
         <v>85.75954558772929</v>
       </c>
       <c r="H42" t="n">
-        <v>42.75541829589049</v>
+        <v>42.75541829589048</v>
       </c>
       <c r="I42" t="n">
-        <v>62.98439029745218</v>
+        <v>86.44169614186399</v>
       </c>
       <c r="J42" t="n">
-        <v>142.0237151377162</v>
+        <v>299.0104088577483</v>
       </c>
       <c r="K42" t="n">
-        <v>289.8146695059645</v>
+        <v>446.8013632259966</v>
       </c>
       <c r="L42" t="n">
-        <v>496.0652591283643</v>
+        <v>653.0519528483964</v>
       </c>
       <c r="M42" t="n">
-        <v>739.8954600838658</v>
+        <v>896.8821538038977</v>
       </c>
       <c r="N42" t="n">
-        <v>1254.962719722999</v>
+        <v>1149.507219438093</v>
       </c>
       <c r="O42" t="n">
-        <v>1482.454583745858</v>
+        <v>1376.999083460952</v>
       </c>
       <c r="P42" t="n">
-        <v>1661.89523739668</v>
+        <v>1556.439737111774</v>
       </c>
       <c r="Q42" t="n">
-        <v>1773.7346928875</v>
+        <v>1668.279192602594</v>
       </c>
       <c r="R42" t="n">
         <v>1815.649874842555</v>
@@ -7545,49 +7545,49 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1089.955188520548</v>
+        <v>622.5990473197237</v>
       </c>
       <c r="C43" t="n">
-        <v>917.9826253994637</v>
+        <v>450.6264841986397</v>
       </c>
       <c r="D43" t="n">
-        <v>754.6658525262344</v>
+        <v>287.3097113254104</v>
       </c>
       <c r="E43" t="n">
-        <v>588.4576466790879</v>
+        <v>287.3097113254104</v>
       </c>
       <c r="F43" t="n">
-        <v>416.5958724536483</v>
+        <v>115.4479370999708</v>
       </c>
       <c r="G43" t="n">
-        <v>251.2392550574696</v>
+        <v>115.4479370999708</v>
       </c>
       <c r="H43" t="n">
         <v>115.4479370999708</v>
       </c>
       <c r="I43" t="n">
-        <v>42.75541829589049</v>
+        <v>42.75541829589048</v>
       </c>
       <c r="J43" t="n">
-        <v>84.71320548484812</v>
+        <v>84.71320548484809</v>
       </c>
       <c r="K43" t="n">
-        <v>166.4811349991143</v>
+        <v>166.4811349991142</v>
       </c>
       <c r="L43" t="n">
         <v>652.3645187823272</v>
       </c>
       <c r="M43" t="n">
-        <v>1181.462820193972</v>
+        <v>768.3405774192806</v>
       </c>
       <c r="N43" t="n">
-        <v>1295.958075335492</v>
+        <v>1280.868755402681</v>
       </c>
       <c r="O43" t="n">
-        <v>1776.114422406825</v>
+        <v>1761.025102474014</v>
       </c>
       <c r="P43" t="n">
-        <v>1936.87886150226</v>
+        <v>2088.252358880159</v>
       </c>
       <c r="Q43" t="n">
         <v>2137.770914794524</v>
@@ -7596,25 +7596,25 @@
         <v>2137.770914794524</v>
       </c>
       <c r="S43" t="n">
-        <v>2137.770914794524</v>
+        <v>1983.326552563498</v>
       </c>
       <c r="T43" t="n">
-        <v>1898.278526888669</v>
+        <v>1838.2355521157</v>
       </c>
       <c r="U43" t="n">
-        <v>1618.14318851495</v>
+        <v>1838.2355521157</v>
       </c>
       <c r="V43" t="n">
-        <v>1591.150360658293</v>
+        <v>1556.524084723729</v>
       </c>
       <c r="W43" t="n">
-        <v>1316.297956830806</v>
+        <v>1281.671680896242</v>
       </c>
       <c r="X43" t="n">
-        <v>1316.297956830806</v>
+        <v>1039.107784342047</v>
       </c>
       <c r="Y43" t="n">
-        <v>1089.955188520548</v>
+        <v>812.7650160317894</v>
       </c>
     </row>
     <row r="44">
@@ -7624,40 +7624,40 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1608.808787422829</v>
+        <v>900.8652816256315</v>
       </c>
       <c r="C44" t="n">
-        <v>1181.90805743613</v>
+        <v>868.3799204932119</v>
       </c>
       <c r="D44" t="n">
-        <v>1181.90805743613</v>
+        <v>445.0872996782122</v>
       </c>
       <c r="E44" t="n">
-        <v>1147.523817309419</v>
+        <v>445.0872996782122</v>
       </c>
       <c r="F44" t="n">
-        <v>722.3996354988195</v>
+        <v>445.0872996782122</v>
       </c>
       <c r="G44" t="n">
-        <v>320.0677541164978</v>
+        <v>42.75541829589048</v>
       </c>
       <c r="H44" t="n">
-        <v>42.75541829589049</v>
+        <v>42.75541829589048</v>
       </c>
       <c r="I44" t="n">
-        <v>84.39494262103622</v>
+        <v>84.39494262103619</v>
       </c>
       <c r="J44" t="n">
-        <v>222.2360596072047</v>
+        <v>222.2360596072046</v>
       </c>
       <c r="K44" t="n">
-        <v>437.0691715610005</v>
+        <v>437.0691715610004</v>
       </c>
       <c r="L44" t="n">
-        <v>709.5851800848325</v>
+        <v>709.5851800848322</v>
       </c>
       <c r="M44" t="n">
-        <v>1017.95803136565</v>
+        <v>1017.958031365649</v>
       </c>
       <c r="N44" t="n">
         <v>1332.070421635641</v>
@@ -7669,31 +7669,31 @@
         <v>1872.202557977127</v>
       </c>
       <c r="Q44" t="n">
-        <v>2048.878716272601</v>
+        <v>2048.8787162726</v>
       </c>
       <c r="R44" t="n">
         <v>2137.770914794524</v>
       </c>
       <c r="S44" t="n">
-        <v>2079.14225834845</v>
+        <v>2137.770914794524</v>
       </c>
       <c r="T44" t="n">
-        <v>1867.003122344159</v>
+        <v>2137.770914794524</v>
       </c>
       <c r="U44" t="n">
-        <v>1608.808787422829</v>
+        <v>2137.770914794524</v>
       </c>
       <c r="V44" t="n">
-        <v>1608.808787422829</v>
+        <v>2137.770914794524</v>
       </c>
       <c r="W44" t="n">
-        <v>1608.808787422829</v>
+        <v>2137.770914794524</v>
       </c>
       <c r="X44" t="n">
-        <v>1608.808787422829</v>
+        <v>1726.050915962271</v>
       </c>
       <c r="Y44" t="n">
-        <v>1608.808787422829</v>
+        <v>1320.713645917162</v>
       </c>
     </row>
     <row r="45">
@@ -7703,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>920.5540468050098</v>
+        <v>598.4330068530409</v>
       </c>
       <c r="C45" t="n">
-        <v>803.0481433225145</v>
+        <v>480.9271033705456</v>
       </c>
       <c r="D45" t="n">
-        <v>699.2081848377995</v>
+        <v>377.0871448858306</v>
       </c>
       <c r="E45" t="n">
-        <v>594.5062511107368</v>
+        <v>272.3852111587678</v>
       </c>
       <c r="F45" t="n">
-        <v>500.860420793641</v>
+        <v>178.739380841672</v>
       </c>
       <c r="G45" t="n">
-        <v>407.8805855396982</v>
+        <v>85.75954558772929</v>
       </c>
       <c r="H45" t="n">
-        <v>364.8764582478594</v>
+        <v>42.75541829589048</v>
       </c>
       <c r="I45" t="n">
-        <v>385.1054302494211</v>
+        <v>86.44169614186399</v>
       </c>
       <c r="J45" t="n">
-        <v>464.1447550896852</v>
+        <v>299.0104088577483</v>
       </c>
       <c r="K45" t="n">
-        <v>611.9357094579335</v>
+        <v>446.8013632259966</v>
       </c>
       <c r="L45" t="n">
-        <v>1080.628493085271</v>
+        <v>653.0519528483964</v>
       </c>
       <c r="M45" t="n">
-        <v>1324.458694040772</v>
+        <v>896.8821538038977</v>
       </c>
       <c r="N45" t="n">
-        <v>1577.083759674968</v>
+        <v>1149.507219438093</v>
       </c>
       <c r="O45" t="n">
-        <v>1804.575623697827</v>
+        <v>1376.999083460952</v>
       </c>
       <c r="P45" t="n">
-        <v>1984.016277348649</v>
+        <v>1556.439737111774</v>
       </c>
       <c r="Q45" t="n">
-        <v>2095.855732839469</v>
+        <v>1668.279192602594</v>
       </c>
       <c r="R45" t="n">
-        <v>2137.770914794524</v>
+        <v>1815.649874842555</v>
       </c>
       <c r="S45" t="n">
-        <v>2076.394567347006</v>
+        <v>1754.273527395037</v>
       </c>
       <c r="T45" t="n">
-        <v>1938.84334949402</v>
+        <v>1616.722309542051</v>
       </c>
       <c r="U45" t="n">
-        <v>1754.145807132634</v>
+        <v>1432.024767180665</v>
       </c>
       <c r="V45" t="n">
-        <v>1549.1726682719</v>
+        <v>1227.051628319931</v>
       </c>
       <c r="W45" t="n">
-        <v>1352.651291105117</v>
+        <v>1030.530251153148</v>
       </c>
       <c r="X45" t="n">
-        <v>1189.17394487178</v>
+        <v>867.0529049198112</v>
       </c>
       <c r="Y45" t="n">
-        <v>1049.481056225073</v>
+        <v>727.3600162731036</v>
       </c>
     </row>
     <row r="46">
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>754.6658525262344</v>
+        <v>544.2529601373502</v>
       </c>
       <c r="C46" t="n">
-        <v>754.6658525262344</v>
+        <v>372.2803970162662</v>
       </c>
       <c r="D46" t="n">
-        <v>754.6658525262344</v>
+        <v>208.9636241430369</v>
       </c>
       <c r="E46" t="n">
-        <v>588.4576466790879</v>
+        <v>42.75541829589048</v>
       </c>
       <c r="F46" t="n">
-        <v>416.5958724536483</v>
+        <v>42.75541829589048</v>
       </c>
       <c r="G46" t="n">
-        <v>251.2392550574696</v>
+        <v>42.75541829589048</v>
       </c>
       <c r="H46" t="n">
-        <v>115.4479370999708</v>
+        <v>42.75541829589048</v>
       </c>
       <c r="I46" t="n">
-        <v>42.75541829589049</v>
+        <v>42.75541829589048</v>
       </c>
       <c r="J46" t="n">
-        <v>84.71320548484812</v>
+        <v>84.71320548484809</v>
       </c>
       <c r="K46" t="n">
-        <v>343.042066647786</v>
+        <v>166.4811349991142</v>
       </c>
       <c r="L46" t="n">
-        <v>828.925450430999</v>
+        <v>481.8999867656338</v>
       </c>
       <c r="M46" t="n">
-        <v>944.9015090679526</v>
+        <v>1010.998288177278</v>
       </c>
       <c r="N46" t="n">
-        <v>1059.396764209473</v>
+        <v>1523.526466160679</v>
       </c>
       <c r="O46" t="n">
-        <v>1539.553111280806</v>
+        <v>2003.682813232012</v>
       </c>
       <c r="P46" t="n">
-        <v>1936.87886150226</v>
+        <v>2088.252358880159</v>
       </c>
       <c r="Q46" t="n">
         <v>2137.770914794524</v>
       </c>
       <c r="R46" t="n">
-        <v>2131.215415329223</v>
+        <v>2137.770914794524</v>
       </c>
       <c r="S46" t="n">
-        <v>1976.771053098197</v>
+        <v>2137.770914794524</v>
       </c>
       <c r="T46" t="n">
-        <v>1737.278665192341</v>
+        <v>2040.024803307045</v>
       </c>
       <c r="U46" t="n">
-        <v>1537.572492055951</v>
+        <v>1759.889464933327</v>
       </c>
       <c r="V46" t="n">
-        <v>1255.861024663979</v>
+        <v>1478.177997541356</v>
       </c>
       <c r="W46" t="n">
-        <v>981.0086208364924</v>
+        <v>1203.325593713869</v>
       </c>
       <c r="X46" t="n">
-        <v>981.0086208364924</v>
+        <v>960.7616971596738</v>
       </c>
       <c r="Y46" t="n">
-        <v>754.6658525262344</v>
+        <v>734.4189288494158</v>
       </c>
     </row>
   </sheetData>
@@ -8768,7 +8768,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>265.0931252575128</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -8780,7 +8780,7 @@
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>265.0931252575128</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
@@ -8847,28 +8847,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>141.2399822880256</v>
+        <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>417.2951947219103</v>
+        <v>417.2951947219102</v>
       </c>
       <c r="N13" t="n">
-        <v>0</v>
+        <v>402.0534574160406</v>
       </c>
       <c r="O13" t="n">
         <v>381.5174992961649</v>
       </c>
       <c r="P13" t="n">
-        <v>315.9153581548562</v>
+        <v>129.2956009356068</v>
       </c>
       <c r="Q13" t="n">
-        <v>152.9025226039384</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -9002,10 +9002,10 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>134.8781695713334</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -9026,7 +9026,7 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>158.5724178990222</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>106.5207073584907</v>
@@ -9087,19 +9087,19 @@
         <v>78.70880469517259</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L16" t="n">
-        <v>62.53117759285294</v>
+        <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>417.2951947219103</v>
+        <v>417.2951947219102</v>
       </c>
       <c r="N16" t="n">
         <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>381.5174992961649</v>
+        <v>194.2682636425309</v>
       </c>
       <c r="P16" t="n">
         <v>315.9153581548562</v>
@@ -9242,7 +9242,7 @@
         <v>23.69424832768873</v>
       </c>
       <c r="J18" t="n">
-        <v>241.3988769298241</v>
+        <v>134.8781695713334</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -9266,7 +9266,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9321,7 +9321,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K19" t="n">
         <v>249.7804132464869</v>
@@ -9330,19 +9330,19 @@
         <v>380.1908016072373</v>
       </c>
       <c r="M19" t="n">
-        <v>417.2951947219102</v>
+        <v>0</v>
       </c>
       <c r="N19" t="n">
         <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>45.68878933440462</v>
+        <v>231.372656757204</v>
       </c>
       <c r="P19" t="n">
         <v>315.9153581548562</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>152.9025226039384</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -9476,10 +9476,10 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>134.8781695713334</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -9491,7 +9491,7 @@
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>265.0931252575128</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
@@ -9503,7 +9503,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9561,7 +9561,7 @@
         <v>78.70880469517259</v>
       </c>
       <c r="K22" t="n">
-        <v>0</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L22" t="n">
         <v>380.1908016072373</v>
@@ -9570,10 +9570,10 @@
         <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>402.0534574160406</v>
+        <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>79.09961258765004</v>
+        <v>231.372656757204</v>
       </c>
       <c r="P22" t="n">
         <v>315.9153581548562</v>
@@ -9637,13 +9637,13 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>249.7730798851968</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>461.3324725154296</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
@@ -9652,7 +9652,7 @@
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>453.4690496301063</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
@@ -9661,7 +9661,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>153.7764225027789</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9713,10 +9713,10 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J24" t="n">
-        <v>265.0931252575127</v>
+        <v>134.8781695713333</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -9740,7 +9740,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9798,10 +9798,10 @@
         <v>78.70880469517259</v>
       </c>
       <c r="K25" t="n">
-        <v>136.8880587814648</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L25" t="n">
-        <v>380.1908016072373</v>
+        <v>267.2984471422153</v>
       </c>
       <c r="M25" t="n">
         <v>417.7126065281028</v>
@@ -9874,7 +9874,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -9886,7 +9886,7 @@
         <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>360.2014738739051</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
         <v>0</v>
@@ -9895,10 +9895,10 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>496.8170781441769</v>
+        <v>307.5560500126506</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9956,7 +9956,7 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>265.0931252575128</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -9971,13 +9971,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>158.5724178990221</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>106.5207073584907</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10035,10 +10035,10 @@
         <v>78.70880469517259</v>
       </c>
       <c r="K28" t="n">
-        <v>136.8880587814648</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L28" t="n">
-        <v>380.1908016072373</v>
+        <v>267.2984471422153</v>
       </c>
       <c r="M28" t="n">
         <v>417.7126065281028</v>
@@ -10111,10 +10111,10 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>323.1380568862305</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K29" t="n">
-        <v>533.8804951318516</v>
+        <v>461.3324725154295</v>
       </c>
       <c r="L29" t="n">
         <v>0</v>
@@ -10187,7 +10187,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -10208,10 +10208,10 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>158.5724178990221</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>134.8781695713333</v>
       </c>
       <c r="R30" t="n">
         <v>106.5207073584907</v>
@@ -10278,13 +10278,13 @@
         <v>380.1908016072373</v>
       </c>
       <c r="M31" t="n">
-        <v>417.7126065281028</v>
+        <v>304.8202520630808</v>
       </c>
       <c r="N31" t="n">
         <v>402.0534574160406</v>
       </c>
       <c r="O31" t="n">
-        <v>268.6251448311426</v>
+        <v>381.5174992961649</v>
       </c>
       <c r="P31" t="n">
         <v>315.9153581548562</v>
@@ -10348,7 +10348,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>323.1380568862305</v>
       </c>
       <c r="K32" t="n">
         <v>533.8804951318516</v>
@@ -10366,7 +10366,7 @@
         <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>323.1380568862306</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
@@ -10424,10 +10424,10 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>134.8781695713333</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -10445,7 +10445,7 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>158.5724178990221</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -10506,7 +10506,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K34" t="n">
         <v>249.7804132464869</v>
@@ -10515,7 +10515,7 @@
         <v>380.1908016072373</v>
       </c>
       <c r="M34" t="n">
-        <v>383.5290567582532</v>
+        <v>417.7126065281028</v>
       </c>
       <c r="N34" t="n">
         <v>402.0534574160406</v>
@@ -10527,7 +10527,7 @@
         <v>315.9153581548562</v>
       </c>
       <c r="Q34" t="n">
-        <v>152.9025226039384</v>
+        <v>40.01016813891631</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -10661,10 +10661,10 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J36" t="n">
-        <v>265.0931252575128</v>
+        <v>134.8781695713334</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -10688,7 +10688,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10743,22 +10743,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>78.70880469517259</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>249.7804132464869</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>380.1908016072373</v>
+        <v>208.0044056307794</v>
       </c>
       <c r="M37" t="n">
-        <v>0</v>
+        <v>417.2951947219103</v>
       </c>
       <c r="N37" t="n">
         <v>402.0534574160406</v>
       </c>
       <c r="O37" t="n">
-        <v>298.1370800999575</v>
+        <v>381.5174992961649</v>
       </c>
       <c r="P37" t="n">
         <v>0</v>
@@ -10898,10 +10898,10 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>134.8781695713334</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -10916,7 +10916,7 @@
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>265.0931252575128</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -10925,7 +10925,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -10992,13 +10992,13 @@
         <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>165.7705156158947</v>
+        <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>381.5174992961649</v>
+        <v>231.372656757204</v>
       </c>
       <c r="P40" t="n">
-        <v>0</v>
+        <v>315.9153581548562</v>
       </c>
       <c r="Q40" t="n">
         <v>152.9025226039384</v>
@@ -11135,10 +11135,10 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>134.8781695713336</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -11150,7 +11150,7 @@
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>265.0931252575128</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
@@ -11162,7 +11162,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11226,19 +11226,19 @@
         <v>380.1908016072373</v>
       </c>
       <c r="M43" t="n">
-        <v>417.2951947219103</v>
+        <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>0</v>
+        <v>402.0534574160406</v>
       </c>
       <c r="O43" t="n">
         <v>381.5174992961649</v>
       </c>
       <c r="P43" t="n">
-        <v>76.96453883564467</v>
+        <v>245.1087987454525</v>
       </c>
       <c r="Q43" t="n">
-        <v>152.9025226039384</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -11372,16 +11372,16 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>134.8781695713336</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>265.0931252575125</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -11399,7 +11399,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -11457,25 +11457,25 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>178.3443754026988</v>
+        <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>380.1908016072373</v>
+        <v>208.0044056307794</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>417.2951947219103</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>402.0534574160406</v>
       </c>
       <c r="O46" t="n">
         <v>381.5174992961649</v>
       </c>
       <c r="P46" t="n">
-        <v>315.9153581548562</v>
+        <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>152.9025226039384</v>
+        <v>0</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
@@ -23257,16 +23257,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>415.6498806486147</v>
+        <v>105.2570250751268</v>
       </c>
       <c r="C11" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>155.5175388321883</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F11" t="n">
         <v>420.8729399924937</v>
@@ -23308,22 +23308,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>58.04236988161365</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>210.0177446442482</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y11" t="n">
         <v>401.2838973446586</v>
@@ -23415,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23424,13 +23424,13 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>163.7030512222169</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -23463,25 +23463,25 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>6.489944470648567</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>152.8999186087154</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>277.3339849899809</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>150.286248190841</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>128.2455041155112</v>
       </c>
       <c r="Y13" t="n">
         <v>224.0793406271554</v>
@@ -23497,19 +23497,19 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C14" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F14" t="n">
         <v>420.8729399924937</v>
       </c>
       <c r="G14" t="n">
-        <v>398.3085625684984</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -23545,25 +23545,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>58.04236988161365</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>250.6223945123414</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W14" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>371.7491557328433</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="15">
@@ -23652,16 +23652,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>145.2802579296132</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>77.34386402877249</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -23670,7 +23670,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>134.4334047779237</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -23700,10 +23700,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>6.489944470648567</v>
       </c>
       <c r="S16" t="n">
-        <v>152.8999186087154</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>237.097464026797</v>
@@ -23712,13 +23712,13 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23734,22 +23734,22 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C17" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E17" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G17" t="n">
         <v>398.3085625684984</v>
       </c>
       <c r="H17" t="n">
-        <v>274.5392124624013</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -23782,10 +23782,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>58.04236988161365</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>210.0177446442482</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -23794,13 +23794,13 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>169.1055389101406</v>
+        <v>314.8372270948556</v>
       </c>
       <c r="X17" t="n">
         <v>407.6027988439302</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="18">
@@ -23901,16 +23901,16 @@
         <v>164.546123788675</v>
       </c>
       <c r="F19" t="n">
-        <v>81.23636880091179</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G19" t="n">
-        <v>163.7030512222169</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>134.4334047779237</v>
       </c>
       <c r="I19" t="n">
-        <v>71.96559361603954</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23940,10 +23940,10 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>152.8999186087154</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>217.9412791744232</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23958,7 +23958,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -23980,10 +23980,10 @@
         <v>421.717170453621</v>
       </c>
       <c r="F20" t="n">
-        <v>33.28132147042641</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G20" t="n">
-        <v>398.3085625684984</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>274.5392124624013</v>
@@ -24022,16 +24022,16 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>147.5319886769716</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>255.612391572116</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -24129,22 +24129,22 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F22" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>163.7030512222169</v>
       </c>
       <c r="H22" t="n">
-        <v>134.4334047779237</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>71.96559361603954</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>6.489944470648567</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24189,13 +24189,13 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>75.63933610640152</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>224.0793406271554</v>
+        <v>101.3227271009721</v>
       </c>
     </row>
     <row r="23">
@@ -24205,25 +24205,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>14.25772389283543</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
         <v>421.717170453621</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>93.1066593210781</v>
       </c>
       <c r="H23" t="n">
-        <v>274.5392124624013</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -24262,10 +24262,10 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>255.612391572116</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W23" t="n">
         <v>392.4274362026566</v>
@@ -24445,7 +24445,7 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -24454,13 +24454,13 @@
         <v>421.717170453621</v>
       </c>
       <c r="F26" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>274.5392124624013</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -24496,22 +24496,22 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>210.0177446442482</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>255.612391572116</v>
       </c>
       <c r="V26" t="n">
-        <v>280.0018489313743</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W26" t="n">
-        <v>392.4274362026566</v>
+        <v>20.56618106492044</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="27">
@@ -24682,16 +24682,16 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D29" t="n">
-        <v>36.57074165814186</v>
+        <v>411.1602138201936</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F29" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
@@ -24730,7 +24730,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>58.04236988161365</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -24739,16 +24739,16 @@
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y29" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -24916,19 +24916,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F32" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
         <v>398.3085625684984</v>
@@ -24979,13 +24979,13 @@
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>85.19919156919275</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
         <v>407.6027988439302</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>80.9451471498308</v>
       </c>
     </row>
     <row r="33">
@@ -25153,25 +25153,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E35" t="n">
-        <v>421.717170453621</v>
+        <v>5.114934816413893</v>
       </c>
       <c r="F35" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>274.5392124624013</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -25210,16 +25210,16 @@
         <v>210.0177446442482</v>
       </c>
       <c r="U35" t="n">
-        <v>34.97183924516162</v>
+        <v>255.612391572116</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W35" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y35" t="n">
         <v>401.2838973446586</v>
@@ -25320,19 +25320,19 @@
         <v>161.683605144497</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F37" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>89.87978696668699</v>
+        <v>60.70695344648551</v>
       </c>
       <c r="H37" t="n">
         <v>134.4334047779237</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>71.96559361603954</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>6.48994447064856</v>
+        <v>6.489944470648567</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25368,7 +25368,7 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>277.3339849899809</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25377,7 +25377,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25390,19 +25390,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>415.6498806486147</v>
+        <v>25.86606685476517</v>
       </c>
       <c r="C38" t="n">
-        <v>26.18364302276404</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
         <v>398.3085625684984</v>
@@ -25441,22 +25441,22 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>58.04236988161365</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>210.0177446442482</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>255.612391572116</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y38" t="n">
         <v>401.2838973446586</v>
@@ -25557,13 +25557,13 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G40" t="n">
-        <v>163.7030512222169</v>
+        <v>66.93440084961303</v>
       </c>
       <c r="H40" t="n">
         <v>134.4334047779237</v>
@@ -25596,16 +25596,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>6.489944470648567</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>152.8999186087154</v>
       </c>
       <c r="T40" t="n">
-        <v>27.98172443808664</v>
+        <v>237.097464026797</v>
       </c>
       <c r="U40" t="n">
-        <v>277.3339849899809</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25627,19 +25627,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>25.86606685476511</v>
       </c>
       <c r="G41" t="n">
         <v>398.3085625684984</v>
@@ -25678,10 +25678,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>58.04236988161366</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>210.0177446442482</v>
       </c>
       <c r="U41" t="n">
         <v>255.612391572116</v>
@@ -25693,10 +25693,10 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X41" t="n">
-        <v>268.1033023137508</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="42">
@@ -25785,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -25794,16 +25794,16 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>163.7030512222169</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>134.4334047779237</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -25833,25 +25833,25 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>6.48994447064856</v>
+        <v>6.489944470648574</v>
       </c>
       <c r="S43" t="n">
-        <v>152.8999186087154</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>93.45737358347722</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>277.3339849899809</v>
       </c>
       <c r="V43" t="n">
-        <v>252.1714531399601</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -25864,25 +25864,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>390.4712151657375</v>
       </c>
       <c r="D44" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>387.6767727281779</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>274.5392124624013</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -25915,13 +25915,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>58.04236988161366</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>210.0177446442482</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>255.612391572116</v>
       </c>
       <c r="V44" t="n">
         <v>353.914520725013</v>
@@ -25930,10 +25930,10 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X44" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -26022,28 +26022,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>163.7030512222169</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>134.4334047779237</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>71.96559361603954</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,16 +26070,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>6.489944470648574</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>152.8999186087154</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>140.3288136541927</v>
       </c>
       <c r="U46" t="n">
-        <v>79.62487358495403</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26088,7 +26088,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>375139.4654775806</v>
+        <v>375139.4654775804</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>375139.4654775805</v>
+        <v>375139.4654775804</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>375139.4654775806</v>
+        <v>375139.4654775805</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>375139.4654775804</v>
+        <v>375139.4654775806</v>
       </c>
     </row>
     <row r="9">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>499805.9073980484</v>
+        <v>499805.9073980483</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>499805.9073980484</v>
+        <v>499805.9073980483</v>
       </c>
     </row>
     <row r="13">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>375139.4654775804</v>
+        <v>375139.4654775805</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>375139.4654775806</v>
+        <v>375139.4654775805</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>375139.4654775806</v>
+        <v>375139.4654775805</v>
       </c>
     </row>
   </sheetData>
@@ -26313,13 +26313,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>401630.0479888428</v>
+        <v>401630.0479888429</v>
       </c>
       <c r="C2" t="n">
         <v>401630.0479888428</v>
       </c>
       <c r="D2" t="n">
-        <v>401630.0479888428</v>
+        <v>401630.0479888429</v>
       </c>
       <c r="E2" t="n">
         <v>238829.7665149347</v>
@@ -26331,22 +26331,22 @@
         <v>238829.7665149347</v>
       </c>
       <c r="H2" t="n">
+        <v>238829.7665149347</v>
+      </c>
+      <c r="I2" t="n">
+        <v>299743.9472979781</v>
+      </c>
+      <c r="J2" t="n">
+        <v>299743.9472979781</v>
+      </c>
+      <c r="K2" t="n">
+        <v>299743.9472979782</v>
+      </c>
+      <c r="L2" t="n">
+        <v>299743.9472979782</v>
+      </c>
+      <c r="M2" t="n">
         <v>238829.7665149346</v>
-      </c>
-      <c r="I2" t="n">
-        <v>299743.9472979782</v>
-      </c>
-      <c r="J2" t="n">
-        <v>299743.9472979782</v>
-      </c>
-      <c r="K2" t="n">
-        <v>299743.9472979783</v>
-      </c>
-      <c r="L2" t="n">
-        <v>299743.9472979781</v>
-      </c>
-      <c r="M2" t="n">
-        <v>238829.7665149347</v>
       </c>
       <c r="N2" t="n">
         <v>238829.7665149347</v>
@@ -26355,7 +26355,7 @@
         <v>238829.7665149347</v>
       </c>
       <c r="P2" t="n">
-        <v>238829.7665149347</v>
+        <v>238829.7665149346</v>
       </c>
     </row>
     <row r="3">
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>556689.6559222538</v>
+        <v>556689.6559222537</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>79247.32527160778</v>
+        <v>79247.32527160775</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26429,22 +26429,22 @@
         <v>17337.56469062523</v>
       </c>
       <c r="F4" t="n">
+        <v>17337.56469062523</v>
+      </c>
+      <c r="G4" t="n">
         <v>17337.56469062524</v>
       </c>
-      <c r="G4" t="n">
-        <v>17337.56469062523</v>
-      </c>
       <c r="H4" t="n">
-        <v>17337.56469062523</v>
+        <v>17337.56469062524</v>
       </c>
       <c r="I4" t="n">
-        <v>50765.91611951132</v>
+        <v>50765.91611951133</v>
       </c>
       <c r="J4" t="n">
+        <v>50765.91611951134</v>
+      </c>
+      <c r="K4" t="n">
         <v>50765.91611951133</v>
-      </c>
-      <c r="K4" t="n">
-        <v>50765.91611951132</v>
       </c>
       <c r="L4" t="n">
         <v>50765.91611951133</v>
@@ -26453,13 +26453,13 @@
         <v>17337.56469062523</v>
       </c>
       <c r="N4" t="n">
-        <v>17337.56469062523</v>
+        <v>17337.56469062524</v>
       </c>
       <c r="O4" t="n">
         <v>17337.56469062524</v>
       </c>
       <c r="P4" t="n">
-        <v>17337.56469062523</v>
+        <v>17337.56469062524</v>
       </c>
     </row>
     <row r="5">
@@ -26505,13 +26505,13 @@
         <v>43269.71441650125</v>
       </c>
       <c r="N5" t="n">
-        <v>43269.71441650124</v>
+        <v>43269.71441650125</v>
       </c>
       <c r="O5" t="n">
-        <v>43269.71441650126</v>
+        <v>43269.71441650125</v>
       </c>
       <c r="P5" t="n">
-        <v>43269.71441650126</v>
+        <v>43269.71441650125</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>48208.69690344331</v>
+        <v>48186.98326194708</v>
       </c>
       <c r="C6" t="n">
-        <v>48208.69690344331</v>
+        <v>48186.98326194697</v>
       </c>
       <c r="D6" t="n">
-        <v>48208.69690344331</v>
+        <v>48186.98326194708</v>
       </c>
       <c r="E6" t="n">
-        <v>-378467.1685144456</v>
+        <v>-379070.3117326343</v>
       </c>
       <c r="F6" t="n">
-        <v>178222.4874078082</v>
+        <v>177619.3441896194</v>
       </c>
       <c r="G6" t="n">
-        <v>178222.4874078082</v>
+        <v>177619.3441896194</v>
       </c>
       <c r="H6" t="n">
-        <v>178222.4874078081</v>
+        <v>177619.3441896194</v>
       </c>
       <c r="I6" t="n">
-        <v>134992.5262643735</v>
+        <v>134606.9336918383</v>
       </c>
       <c r="J6" t="n">
-        <v>192548.7094448553</v>
+        <v>192163.11687232</v>
       </c>
       <c r="K6" t="n">
-        <v>192548.7094448554</v>
+        <v>192163.1168723202</v>
       </c>
       <c r="L6" t="n">
-        <v>192548.7094448552</v>
+        <v>192163.1168723202</v>
       </c>
       <c r="M6" t="n">
-        <v>98975.16213620041</v>
+        <v>98372.0189180115</v>
       </c>
       <c r="N6" t="n">
-        <v>178222.4874078082</v>
+        <v>177619.3441896194</v>
       </c>
       <c r="O6" t="n">
-        <v>178222.4874078083</v>
+        <v>177619.3441896193</v>
       </c>
       <c r="P6" t="n">
-        <v>178222.4874078082</v>
+        <v>177619.3441896193</v>
       </c>
     </row>
   </sheetData>
@@ -26776,10 +26776,10 @@
         <v>494.2934179644262</v>
       </c>
       <c r="O3" t="n">
-        <v>494.2934179644263</v>
+        <v>494.2934179644261</v>
       </c>
       <c r="P3" t="n">
-        <v>494.2934179644263</v>
+        <v>494.2934179644261</v>
       </c>
     </row>
     <row r="4">
@@ -26825,13 +26825,13 @@
         <v>534.442728698631</v>
       </c>
       <c r="N4" t="n">
-        <v>534.4427286986308</v>
+        <v>534.442728698631</v>
       </c>
       <c r="O4" t="n">
-        <v>534.4427286986311</v>
+        <v>534.442728698631</v>
       </c>
       <c r="P4" t="n">
-        <v>534.4427286986311</v>
+        <v>534.442728698631</v>
       </c>
     </row>
   </sheetData>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>534.442728698631</v>
+        <v>534.4427286986308</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>318.0018188777378</v>
+        <v>318.0018188777377</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>534.442728698631</v>
+        <v>534.4427286986308</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -31752,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>1.987109217947441</v>
+        <v>1.98710921794744</v>
       </c>
       <c r="H11" t="n">
         <v>20.35048227830423</v>
@@ -31770,7 +31770,7 @@
         <v>313.580737911241</v>
       </c>
       <c r="M11" t="n">
-        <v>348.9189914659138</v>
+        <v>348.9189914659137</v>
       </c>
       <c r="N11" t="n">
         <v>354.564865531407</v>
@@ -31788,10 +31788,10 @@
         <v>124.822749411891</v>
       </c>
       <c r="S11" t="n">
-        <v>45.28125130397735</v>
+        <v>45.28125130397734</v>
       </c>
       <c r="T11" t="n">
-        <v>8.698570601564926</v>
+        <v>8.698570601564924</v>
       </c>
       <c r="U11" t="n">
         <v>0.1589687374357952</v>
@@ -31846,7 +31846,7 @@
         <v>171.6830261244932</v>
       </c>
       <c r="L12" t="n">
-        <v>230.8490156257446</v>
+        <v>230.8490156257445</v>
       </c>
       <c r="M12" t="n">
         <v>269.3899127906122</v>
@@ -31855,16 +31855,16 @@
         <v>276.5198621874765</v>
       </c>
       <c r="O12" t="n">
-        <v>252.9616513614739</v>
+        <v>252.9616513614738</v>
       </c>
       <c r="P12" t="n">
-        <v>203.0240267107094</v>
+        <v>203.0240267107093</v>
       </c>
       <c r="Q12" t="n">
         <v>135.7161852494025</v>
       </c>
       <c r="R12" t="n">
-        <v>66.0114870255134</v>
+        <v>66.01148702551339</v>
       </c>
       <c r="S12" t="n">
         <v>19.74842099131456</v>
@@ -31873,7 +31873,7 @@
         <v>4.285430670842524</v>
       </c>
       <c r="U12" t="n">
-        <v>0.06994718178741884</v>
+        <v>0.06994718178741882</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31913,19 +31913,19 @@
         <v>0.8913487864932275</v>
       </c>
       <c r="H13" t="n">
-        <v>7.924901029003428</v>
+        <v>7.924901029003427</v>
       </c>
       <c r="I13" t="n">
         <v>26.80528896108725</v>
       </c>
       <c r="J13" t="n">
-        <v>63.01835920507119</v>
+        <v>63.01835920507118</v>
       </c>
       <c r="K13" t="n">
         <v>103.5585226489404</v>
       </c>
       <c r="L13" t="n">
-        <v>132.5192550391841</v>
+        <v>132.519255039184</v>
       </c>
       <c r="M13" t="n">
         <v>139.7229738682065</v>
@@ -31940,10 +31940,10 @@
         <v>107.8045841409627</v>
       </c>
       <c r="Q13" t="n">
-        <v>74.63830611262836</v>
+        <v>74.63830611262834</v>
       </c>
       <c r="R13" t="n">
-        <v>40.07828270905002</v>
+        <v>40.07828270905001</v>
       </c>
       <c r="S13" t="n">
         <v>15.53377839734106</v>
@@ -31952,7 +31952,7 @@
         <v>3.808490269561971</v>
       </c>
       <c r="U13" t="n">
-        <v>0.04861902471781247</v>
+        <v>0.04861902471781246</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>1.987109217947441</v>
+        <v>1.98710921794744</v>
       </c>
       <c r="H14" t="n">
         <v>20.35048227830423</v>
@@ -32007,7 +32007,7 @@
         <v>313.580737911241</v>
       </c>
       <c r="M14" t="n">
-        <v>348.9189914659138</v>
+        <v>348.9189914659137</v>
       </c>
       <c r="N14" t="n">
         <v>354.564865531407</v>
@@ -32025,10 +32025,10 @@
         <v>124.822749411891</v>
       </c>
       <c r="S14" t="n">
-        <v>45.28125130397735</v>
+        <v>45.28125130397734</v>
       </c>
       <c r="T14" t="n">
-        <v>8.698570601564926</v>
+        <v>8.698570601564924</v>
       </c>
       <c r="U14" t="n">
         <v>0.1589687374357952</v>
@@ -32083,7 +32083,7 @@
         <v>171.6830261244932</v>
       </c>
       <c r="L15" t="n">
-        <v>230.8490156257446</v>
+        <v>230.8490156257445</v>
       </c>
       <c r="M15" t="n">
         <v>269.3899127906122</v>
@@ -32092,16 +32092,16 @@
         <v>276.5198621874765</v>
       </c>
       <c r="O15" t="n">
-        <v>252.9616513614739</v>
+        <v>252.9616513614738</v>
       </c>
       <c r="P15" t="n">
-        <v>203.0240267107094</v>
+        <v>203.0240267107093</v>
       </c>
       <c r="Q15" t="n">
         <v>135.7161852494025</v>
       </c>
       <c r="R15" t="n">
-        <v>66.0114870255134</v>
+        <v>66.01148702551339</v>
       </c>
       <c r="S15" t="n">
         <v>19.74842099131456</v>
@@ -32110,7 +32110,7 @@
         <v>4.285430670842524</v>
       </c>
       <c r="U15" t="n">
-        <v>0.06994718178741884</v>
+        <v>0.06994718178741882</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32150,19 +32150,19 @@
         <v>0.8913487864932275</v>
       </c>
       <c r="H16" t="n">
-        <v>7.924901029003428</v>
+        <v>7.924901029003427</v>
       </c>
       <c r="I16" t="n">
         <v>26.80528896108725</v>
       </c>
       <c r="J16" t="n">
-        <v>63.01835920507119</v>
+        <v>63.01835920507118</v>
       </c>
       <c r="K16" t="n">
         <v>103.5585226489404</v>
       </c>
       <c r="L16" t="n">
-        <v>132.5192550391841</v>
+        <v>132.519255039184</v>
       </c>
       <c r="M16" t="n">
         <v>139.7229738682065</v>
@@ -32177,10 +32177,10 @@
         <v>107.8045841409627</v>
       </c>
       <c r="Q16" t="n">
-        <v>74.63830611262836</v>
+        <v>74.63830611262834</v>
       </c>
       <c r="R16" t="n">
-        <v>40.07828270905002</v>
+        <v>40.07828270905001</v>
       </c>
       <c r="S16" t="n">
         <v>15.53377839734106</v>
@@ -32189,7 +32189,7 @@
         <v>3.808490269561971</v>
       </c>
       <c r="U16" t="n">
-        <v>0.04861902471781247</v>
+        <v>0.04861902471781246</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32463,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>1.987109217947441</v>
+        <v>1.98710921794744</v>
       </c>
       <c r="H20" t="n">
         <v>20.35048227830423</v>
@@ -32481,7 +32481,7 @@
         <v>313.580737911241</v>
       </c>
       <c r="M20" t="n">
-        <v>348.9189914659138</v>
+        <v>348.9189914659137</v>
       </c>
       <c r="N20" t="n">
         <v>354.564865531407</v>
@@ -32499,10 +32499,10 @@
         <v>124.822749411891</v>
       </c>
       <c r="S20" t="n">
-        <v>45.28125130397735</v>
+        <v>45.28125130397734</v>
       </c>
       <c r="T20" t="n">
-        <v>8.698570601564926</v>
+        <v>8.698570601564924</v>
       </c>
       <c r="U20" t="n">
         <v>0.1589687374357952</v>
@@ -32557,7 +32557,7 @@
         <v>171.6830261244932</v>
       </c>
       <c r="L21" t="n">
-        <v>230.8490156257446</v>
+        <v>230.8490156257445</v>
       </c>
       <c r="M21" t="n">
         <v>269.3899127906122</v>
@@ -32566,16 +32566,16 @@
         <v>276.5198621874765</v>
       </c>
       <c r="O21" t="n">
-        <v>252.9616513614739</v>
+        <v>252.9616513614738</v>
       </c>
       <c r="P21" t="n">
-        <v>203.0240267107094</v>
+        <v>203.0240267107093</v>
       </c>
       <c r="Q21" t="n">
         <v>135.7161852494025</v>
       </c>
       <c r="R21" t="n">
-        <v>66.0114870255134</v>
+        <v>66.01148702551339</v>
       </c>
       <c r="S21" t="n">
         <v>19.74842099131456</v>
@@ -32584,7 +32584,7 @@
         <v>4.285430670842524</v>
       </c>
       <c r="U21" t="n">
-        <v>0.06994718178741884</v>
+        <v>0.06994718178741882</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32624,19 +32624,19 @@
         <v>0.8913487864932275</v>
       </c>
       <c r="H22" t="n">
-        <v>7.924901029003428</v>
+        <v>7.924901029003427</v>
       </c>
       <c r="I22" t="n">
         <v>26.80528896108725</v>
       </c>
       <c r="J22" t="n">
-        <v>63.01835920507119</v>
+        <v>63.01835920507118</v>
       </c>
       <c r="K22" t="n">
         <v>103.5585226489404</v>
       </c>
       <c r="L22" t="n">
-        <v>132.5192550391841</v>
+        <v>132.519255039184</v>
       </c>
       <c r="M22" t="n">
         <v>139.7229738682065</v>
@@ -32651,10 +32651,10 @@
         <v>107.8045841409627</v>
       </c>
       <c r="Q22" t="n">
-        <v>74.63830611262836</v>
+        <v>74.63830611262834</v>
       </c>
       <c r="R22" t="n">
-        <v>40.07828270905002</v>
+        <v>40.07828270905001</v>
       </c>
       <c r="S22" t="n">
         <v>15.53377839734106</v>
@@ -32663,7 +32663,7 @@
         <v>3.808490269561971</v>
       </c>
       <c r="U22" t="n">
-        <v>0.04861902471781247</v>
+        <v>0.04861902471781246</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>1.987109217947441</v>
+        <v>1.98710921794744</v>
       </c>
       <c r="H23" t="n">
         <v>20.35048227830423</v>
@@ -32718,7 +32718,7 @@
         <v>313.580737911241</v>
       </c>
       <c r="M23" t="n">
-        <v>348.9189914659138</v>
+        <v>348.9189914659137</v>
       </c>
       <c r="N23" t="n">
         <v>354.564865531407</v>
@@ -32736,10 +32736,10 @@
         <v>124.822749411891</v>
       </c>
       <c r="S23" t="n">
-        <v>45.28125130397735</v>
+        <v>45.28125130397734</v>
       </c>
       <c r="T23" t="n">
-        <v>8.698570601564926</v>
+        <v>8.698570601564924</v>
       </c>
       <c r="U23" t="n">
         <v>0.1589687374357952</v>
@@ -32794,7 +32794,7 @@
         <v>171.6830261244932</v>
       </c>
       <c r="L24" t="n">
-        <v>230.8490156257446</v>
+        <v>230.8490156257445</v>
       </c>
       <c r="M24" t="n">
         <v>269.3899127906122</v>
@@ -32803,16 +32803,16 @@
         <v>276.5198621874765</v>
       </c>
       <c r="O24" t="n">
-        <v>252.9616513614739</v>
+        <v>252.9616513614738</v>
       </c>
       <c r="P24" t="n">
-        <v>203.0240267107094</v>
+        <v>203.0240267107093</v>
       </c>
       <c r="Q24" t="n">
         <v>135.7161852494025</v>
       </c>
       <c r="R24" t="n">
-        <v>66.0114870255134</v>
+        <v>66.01148702551339</v>
       </c>
       <c r="S24" t="n">
         <v>19.74842099131456</v>
@@ -32821,7 +32821,7 @@
         <v>4.285430670842524</v>
       </c>
       <c r="U24" t="n">
-        <v>0.06994718178741884</v>
+        <v>0.06994718178741882</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,19 +32861,19 @@
         <v>0.8913487864932275</v>
       </c>
       <c r="H25" t="n">
-        <v>7.924901029003428</v>
+        <v>7.924901029003427</v>
       </c>
       <c r="I25" t="n">
         <v>26.80528896108725</v>
       </c>
       <c r="J25" t="n">
-        <v>63.01835920507119</v>
+        <v>63.01835920507118</v>
       </c>
       <c r="K25" t="n">
         <v>103.5585226489404</v>
       </c>
       <c r="L25" t="n">
-        <v>132.5192550391841</v>
+        <v>132.519255039184</v>
       </c>
       <c r="M25" t="n">
         <v>139.7229738682065</v>
@@ -32888,10 +32888,10 @@
         <v>107.8045841409627</v>
       </c>
       <c r="Q25" t="n">
-        <v>74.63830611262836</v>
+        <v>74.63830611262834</v>
       </c>
       <c r="R25" t="n">
-        <v>40.07828270905002</v>
+        <v>40.07828270905001</v>
       </c>
       <c r="S25" t="n">
         <v>15.53377839734106</v>
@@ -32900,7 +32900,7 @@
         <v>3.808490269561971</v>
       </c>
       <c r="U25" t="n">
-        <v>0.04861902471781247</v>
+        <v>0.04861902471781246</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>1.987109217947441</v>
+        <v>1.98710921794744</v>
       </c>
       <c r="H26" t="n">
         <v>20.35048227830423</v>
@@ -32955,7 +32955,7 @@
         <v>313.580737911241</v>
       </c>
       <c r="M26" t="n">
-        <v>348.9189914659138</v>
+        <v>348.9189914659137</v>
       </c>
       <c r="N26" t="n">
         <v>354.564865531407</v>
@@ -32973,10 +32973,10 @@
         <v>124.822749411891</v>
       </c>
       <c r="S26" t="n">
-        <v>45.28125130397735</v>
+        <v>45.28125130397734</v>
       </c>
       <c r="T26" t="n">
-        <v>8.698570601564926</v>
+        <v>8.698570601564924</v>
       </c>
       <c r="U26" t="n">
         <v>0.1589687374357952</v>
@@ -33031,7 +33031,7 @@
         <v>171.6830261244932</v>
       </c>
       <c r="L27" t="n">
-        <v>230.8490156257446</v>
+        <v>230.8490156257445</v>
       </c>
       <c r="M27" t="n">
         <v>269.3899127906122</v>
@@ -33040,16 +33040,16 @@
         <v>276.5198621874765</v>
       </c>
       <c r="O27" t="n">
-        <v>252.9616513614739</v>
+        <v>252.9616513614738</v>
       </c>
       <c r="P27" t="n">
-        <v>203.0240267107094</v>
+        <v>203.0240267107093</v>
       </c>
       <c r="Q27" t="n">
         <v>135.7161852494025</v>
       </c>
       <c r="R27" t="n">
-        <v>66.0114870255134</v>
+        <v>66.01148702551339</v>
       </c>
       <c r="S27" t="n">
         <v>19.74842099131456</v>
@@ -33058,7 +33058,7 @@
         <v>4.285430670842524</v>
       </c>
       <c r="U27" t="n">
-        <v>0.06994718178741884</v>
+        <v>0.06994718178741882</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33098,19 +33098,19 @@
         <v>0.8913487864932275</v>
       </c>
       <c r="H28" t="n">
-        <v>7.924901029003428</v>
+        <v>7.924901029003427</v>
       </c>
       <c r="I28" t="n">
         <v>26.80528896108725</v>
       </c>
       <c r="J28" t="n">
-        <v>63.01835920507119</v>
+        <v>63.01835920507118</v>
       </c>
       <c r="K28" t="n">
         <v>103.5585226489404</v>
       </c>
       <c r="L28" t="n">
-        <v>132.5192550391841</v>
+        <v>132.519255039184</v>
       </c>
       <c r="M28" t="n">
         <v>139.7229738682065</v>
@@ -33125,10 +33125,10 @@
         <v>107.8045841409627</v>
       </c>
       <c r="Q28" t="n">
-        <v>74.63830611262836</v>
+        <v>74.63830611262834</v>
       </c>
       <c r="R28" t="n">
-        <v>40.07828270905002</v>
+        <v>40.07828270905001</v>
       </c>
       <c r="S28" t="n">
         <v>15.53377839734106</v>
@@ -33137,7 +33137,7 @@
         <v>3.808490269561971</v>
       </c>
       <c r="U28" t="n">
-        <v>0.04861902471781247</v>
+        <v>0.04861902471781246</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>1.987109217947441</v>
+        <v>1.98710921794744</v>
       </c>
       <c r="H29" t="n">
         <v>20.35048227830423</v>
@@ -33192,7 +33192,7 @@
         <v>313.580737911241</v>
       </c>
       <c r="M29" t="n">
-        <v>348.9189914659138</v>
+        <v>348.9189914659137</v>
       </c>
       <c r="N29" t="n">
         <v>354.564865531407</v>
@@ -33210,10 +33210,10 @@
         <v>124.822749411891</v>
       </c>
       <c r="S29" t="n">
-        <v>45.28125130397735</v>
+        <v>45.28125130397734</v>
       </c>
       <c r="T29" t="n">
-        <v>8.698570601564926</v>
+        <v>8.698570601564924</v>
       </c>
       <c r="U29" t="n">
         <v>0.1589687374357952</v>
@@ -33268,7 +33268,7 @@
         <v>171.6830261244932</v>
       </c>
       <c r="L30" t="n">
-        <v>230.8490156257446</v>
+        <v>230.8490156257445</v>
       </c>
       <c r="M30" t="n">
         <v>269.3899127906122</v>
@@ -33277,16 +33277,16 @@
         <v>276.5198621874765</v>
       </c>
       <c r="O30" t="n">
-        <v>252.9616513614739</v>
+        <v>252.9616513614738</v>
       </c>
       <c r="P30" t="n">
-        <v>203.0240267107094</v>
+        <v>203.0240267107093</v>
       </c>
       <c r="Q30" t="n">
         <v>135.7161852494025</v>
       </c>
       <c r="R30" t="n">
-        <v>66.0114870255134</v>
+        <v>66.01148702551339</v>
       </c>
       <c r="S30" t="n">
         <v>19.74842099131456</v>
@@ -33295,7 +33295,7 @@
         <v>4.285430670842524</v>
       </c>
       <c r="U30" t="n">
-        <v>0.06994718178741884</v>
+        <v>0.06994718178741882</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33335,19 +33335,19 @@
         <v>0.8913487864932275</v>
       </c>
       <c r="H31" t="n">
-        <v>7.924901029003428</v>
+        <v>7.924901029003427</v>
       </c>
       <c r="I31" t="n">
         <v>26.80528896108725</v>
       </c>
       <c r="J31" t="n">
-        <v>63.01835920507119</v>
+        <v>63.01835920507118</v>
       </c>
       <c r="K31" t="n">
         <v>103.5585226489404</v>
       </c>
       <c r="L31" t="n">
-        <v>132.5192550391841</v>
+        <v>132.519255039184</v>
       </c>
       <c r="M31" t="n">
         <v>139.7229738682065</v>
@@ -33362,10 +33362,10 @@
         <v>107.8045841409627</v>
       </c>
       <c r="Q31" t="n">
-        <v>74.63830611262836</v>
+        <v>74.63830611262834</v>
       </c>
       <c r="R31" t="n">
-        <v>40.07828270905002</v>
+        <v>40.07828270905001</v>
       </c>
       <c r="S31" t="n">
         <v>15.53377839734106</v>
@@ -33374,7 +33374,7 @@
         <v>3.808490269561971</v>
       </c>
       <c r="U31" t="n">
-        <v>0.04861902471781247</v>
+        <v>0.04861902471781246</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>1.987109217947441</v>
+        <v>1.98710921794744</v>
       </c>
       <c r="H32" t="n">
         <v>20.35048227830423</v>
@@ -33429,7 +33429,7 @@
         <v>313.580737911241</v>
       </c>
       <c r="M32" t="n">
-        <v>348.9189914659138</v>
+        <v>348.9189914659137</v>
       </c>
       <c r="N32" t="n">
         <v>354.564865531407</v>
@@ -33447,10 +33447,10 @@
         <v>124.822749411891</v>
       </c>
       <c r="S32" t="n">
-        <v>45.28125130397735</v>
+        <v>45.28125130397734</v>
       </c>
       <c r="T32" t="n">
-        <v>8.698570601564926</v>
+        <v>8.698570601564924</v>
       </c>
       <c r="U32" t="n">
         <v>0.1589687374357952</v>
@@ -33505,7 +33505,7 @@
         <v>171.6830261244932</v>
       </c>
       <c r="L33" t="n">
-        <v>230.8490156257446</v>
+        <v>230.8490156257445</v>
       </c>
       <c r="M33" t="n">
         <v>269.3899127906122</v>
@@ -33514,16 +33514,16 @@
         <v>276.5198621874765</v>
       </c>
       <c r="O33" t="n">
-        <v>252.9616513614739</v>
+        <v>252.9616513614738</v>
       </c>
       <c r="P33" t="n">
-        <v>203.0240267107094</v>
+        <v>203.0240267107093</v>
       </c>
       <c r="Q33" t="n">
         <v>135.7161852494025</v>
       </c>
       <c r="R33" t="n">
-        <v>66.0114870255134</v>
+        <v>66.01148702551339</v>
       </c>
       <c r="S33" t="n">
         <v>19.74842099131456</v>
@@ -33532,7 +33532,7 @@
         <v>4.285430670842524</v>
       </c>
       <c r="U33" t="n">
-        <v>0.06994718178741884</v>
+        <v>0.06994718178741882</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33572,19 +33572,19 @@
         <v>0.8913487864932275</v>
       </c>
       <c r="H34" t="n">
-        <v>7.924901029003428</v>
+        <v>7.924901029003427</v>
       </c>
       <c r="I34" t="n">
         <v>26.80528896108725</v>
       </c>
       <c r="J34" t="n">
-        <v>63.01835920507119</v>
+        <v>63.01835920507118</v>
       </c>
       <c r="K34" t="n">
         <v>103.5585226489404</v>
       </c>
       <c r="L34" t="n">
-        <v>132.5192550391841</v>
+        <v>132.519255039184</v>
       </c>
       <c r="M34" t="n">
         <v>139.7229738682065</v>
@@ -33599,10 +33599,10 @@
         <v>107.8045841409627</v>
       </c>
       <c r="Q34" t="n">
-        <v>74.63830611262836</v>
+        <v>74.63830611262834</v>
       </c>
       <c r="R34" t="n">
-        <v>40.07828270905002</v>
+        <v>40.07828270905001</v>
       </c>
       <c r="S34" t="n">
         <v>15.53377839734106</v>
@@ -33611,7 +33611,7 @@
         <v>3.808490269561971</v>
       </c>
       <c r="U34" t="n">
-        <v>0.04861902471781247</v>
+        <v>0.04861902471781246</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,7 +33648,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>1.987109217947441</v>
+        <v>1.98710921794744</v>
       </c>
       <c r="H35" t="n">
         <v>20.35048227830423</v>
@@ -33666,7 +33666,7 @@
         <v>313.580737911241</v>
       </c>
       <c r="M35" t="n">
-        <v>348.9189914659138</v>
+        <v>348.9189914659137</v>
       </c>
       <c r="N35" t="n">
         <v>354.564865531407</v>
@@ -33684,10 +33684,10 @@
         <v>124.822749411891</v>
       </c>
       <c r="S35" t="n">
-        <v>45.28125130397735</v>
+        <v>45.28125130397734</v>
       </c>
       <c r="T35" t="n">
-        <v>8.698570601564926</v>
+        <v>8.698570601564924</v>
       </c>
       <c r="U35" t="n">
         <v>0.1589687374357952</v>
@@ -33742,7 +33742,7 @@
         <v>171.6830261244932</v>
       </c>
       <c r="L36" t="n">
-        <v>230.8490156257446</v>
+        <v>230.8490156257445</v>
       </c>
       <c r="M36" t="n">
         <v>269.3899127906122</v>
@@ -33751,16 +33751,16 @@
         <v>276.5198621874765</v>
       </c>
       <c r="O36" t="n">
-        <v>252.9616513614739</v>
+        <v>252.9616513614738</v>
       </c>
       <c r="P36" t="n">
-        <v>203.0240267107094</v>
+        <v>203.0240267107093</v>
       </c>
       <c r="Q36" t="n">
         <v>135.7161852494025</v>
       </c>
       <c r="R36" t="n">
-        <v>66.0114870255134</v>
+        <v>66.01148702551339</v>
       </c>
       <c r="S36" t="n">
         <v>19.74842099131456</v>
@@ -33769,7 +33769,7 @@
         <v>4.285430670842524</v>
       </c>
       <c r="U36" t="n">
-        <v>0.06994718178741884</v>
+        <v>0.06994718178741882</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33809,19 +33809,19 @@
         <v>0.8913487864932275</v>
       </c>
       <c r="H37" t="n">
-        <v>7.924901029003428</v>
+        <v>7.924901029003427</v>
       </c>
       <c r="I37" t="n">
         <v>26.80528896108725</v>
       </c>
       <c r="J37" t="n">
-        <v>63.01835920507119</v>
+        <v>63.01835920507118</v>
       </c>
       <c r="K37" t="n">
         <v>103.5585226489404</v>
       </c>
       <c r="L37" t="n">
-        <v>132.5192550391841</v>
+        <v>132.519255039184</v>
       </c>
       <c r="M37" t="n">
         <v>139.7229738682065</v>
@@ -33836,10 +33836,10 @@
         <v>107.8045841409627</v>
       </c>
       <c r="Q37" t="n">
-        <v>74.63830611262836</v>
+        <v>74.63830611262834</v>
       </c>
       <c r="R37" t="n">
-        <v>40.07828270905002</v>
+        <v>40.07828270905001</v>
       </c>
       <c r="S37" t="n">
         <v>15.53377839734106</v>
@@ -33848,7 +33848,7 @@
         <v>3.808490269561971</v>
       </c>
       <c r="U37" t="n">
-        <v>0.04861902471781247</v>
+        <v>0.04861902471781246</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,7 +33885,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>1.987109217947441</v>
+        <v>1.98710921794744</v>
       </c>
       <c r="H38" t="n">
         <v>20.35048227830423</v>
@@ -33903,7 +33903,7 @@
         <v>313.580737911241</v>
       </c>
       <c r="M38" t="n">
-        <v>348.9189914659138</v>
+        <v>348.9189914659137</v>
       </c>
       <c r="N38" t="n">
         <v>354.564865531407</v>
@@ -33921,10 +33921,10 @@
         <v>124.822749411891</v>
       </c>
       <c r="S38" t="n">
-        <v>45.28125130397735</v>
+        <v>45.28125130397734</v>
       </c>
       <c r="T38" t="n">
-        <v>8.698570601564926</v>
+        <v>8.698570601564924</v>
       </c>
       <c r="U38" t="n">
         <v>0.1589687374357952</v>
@@ -33979,7 +33979,7 @@
         <v>171.6830261244932</v>
       </c>
       <c r="L39" t="n">
-        <v>230.8490156257446</v>
+        <v>230.8490156257445</v>
       </c>
       <c r="M39" t="n">
         <v>269.3899127906122</v>
@@ -33988,16 +33988,16 @@
         <v>276.5198621874765</v>
       </c>
       <c r="O39" t="n">
-        <v>252.9616513614739</v>
+        <v>252.9616513614738</v>
       </c>
       <c r="P39" t="n">
-        <v>203.0240267107094</v>
+        <v>203.0240267107093</v>
       </c>
       <c r="Q39" t="n">
         <v>135.7161852494025</v>
       </c>
       <c r="R39" t="n">
-        <v>66.0114870255134</v>
+        <v>66.01148702551339</v>
       </c>
       <c r="S39" t="n">
         <v>19.74842099131456</v>
@@ -34006,7 +34006,7 @@
         <v>4.285430670842524</v>
       </c>
       <c r="U39" t="n">
-        <v>0.06994718178741884</v>
+        <v>0.06994718178741882</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34046,19 +34046,19 @@
         <v>0.8913487864932275</v>
       </c>
       <c r="H40" t="n">
-        <v>7.924901029003428</v>
+        <v>7.924901029003427</v>
       </c>
       <c r="I40" t="n">
         <v>26.80528896108725</v>
       </c>
       <c r="J40" t="n">
-        <v>63.01835920507119</v>
+        <v>63.01835920507118</v>
       </c>
       <c r="K40" t="n">
         <v>103.5585226489404</v>
       </c>
       <c r="L40" t="n">
-        <v>132.5192550391841</v>
+        <v>132.519255039184</v>
       </c>
       <c r="M40" t="n">
         <v>139.7229738682065</v>
@@ -34073,10 +34073,10 @@
         <v>107.8045841409627</v>
       </c>
       <c r="Q40" t="n">
-        <v>74.63830611262836</v>
+        <v>74.63830611262834</v>
       </c>
       <c r="R40" t="n">
-        <v>40.07828270905002</v>
+        <v>40.07828270905001</v>
       </c>
       <c r="S40" t="n">
         <v>15.53377839734106</v>
@@ -34085,7 +34085,7 @@
         <v>3.808490269561971</v>
       </c>
       <c r="U40" t="n">
-        <v>0.04861902471781247</v>
+        <v>0.04861902471781246</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,34 +34122,34 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>1.987109217947441</v>
+        <v>1.98710921794744</v>
       </c>
       <c r="H41" t="n">
         <v>20.35048227830423</v>
       </c>
       <c r="I41" t="n">
-        <v>76.60802812491879</v>
+        <v>76.60802812491876</v>
       </c>
       <c r="J41" t="n">
-        <v>168.6534109867668</v>
+        <v>168.6534109867667</v>
       </c>
       <c r="K41" t="n">
-        <v>252.767744182482</v>
+        <v>252.7677441824819</v>
       </c>
       <c r="L41" t="n">
-        <v>313.580737911241</v>
+        <v>313.5807379112409</v>
       </c>
       <c r="M41" t="n">
-        <v>348.9189914659138</v>
+        <v>348.9189914659137</v>
       </c>
       <c r="N41" t="n">
-        <v>354.564865531407</v>
+        <v>354.5648655314069</v>
       </c>
       <c r="O41" t="n">
-        <v>334.8055482454421</v>
+        <v>334.805548245442</v>
       </c>
       <c r="P41" t="n">
-        <v>285.7487894273647</v>
+        <v>285.7487894273646</v>
       </c>
       <c r="Q41" t="n">
         <v>214.5854405596218</v>
@@ -34158,10 +34158,10 @@
         <v>124.822749411891</v>
       </c>
       <c r="S41" t="n">
-        <v>45.28125130397736</v>
+        <v>45.28125130397733</v>
       </c>
       <c r="T41" t="n">
-        <v>8.698570601564926</v>
+        <v>8.698570601564924</v>
       </c>
       <c r="U41" t="n">
         <v>0.1589687374357952</v>
@@ -34207,7 +34207,7 @@
         <v>10.26824628639308</v>
       </c>
       <c r="I42" t="n">
-        <v>36.60569180208252</v>
+        <v>36.6056918020825</v>
       </c>
       <c r="J42" t="n">
         <v>100.4488161921859</v>
@@ -34216,34 +34216,34 @@
         <v>171.6830261244932</v>
       </c>
       <c r="L42" t="n">
-        <v>230.8490156257446</v>
+        <v>230.8490156257445</v>
       </c>
       <c r="M42" t="n">
-        <v>269.3899127906123</v>
+        <v>269.3899127906122</v>
       </c>
       <c r="N42" t="n">
-        <v>276.5198621874766</v>
+        <v>276.5198621874765</v>
       </c>
       <c r="O42" t="n">
-        <v>252.9616513614739</v>
+        <v>252.9616513614738</v>
       </c>
       <c r="P42" t="n">
-        <v>203.0240267107094</v>
+        <v>203.0240267107093</v>
       </c>
       <c r="Q42" t="n">
         <v>135.7161852494025</v>
       </c>
       <c r="R42" t="n">
-        <v>66.0114870255134</v>
+        <v>66.01148702551339</v>
       </c>
       <c r="S42" t="n">
         <v>19.74842099131456</v>
       </c>
       <c r="T42" t="n">
-        <v>4.285430670842524</v>
+        <v>4.285430670842523</v>
       </c>
       <c r="U42" t="n">
-        <v>0.06994718178741885</v>
+        <v>0.06994718178741882</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,25 +34280,25 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.8913487864932276</v>
+        <v>0.8913487864932274</v>
       </c>
       <c r="H43" t="n">
-        <v>7.924901029003429</v>
+        <v>7.924901029003427</v>
       </c>
       <c r="I43" t="n">
-        <v>26.80528896108725</v>
+        <v>26.80528896108724</v>
       </c>
       <c r="J43" t="n">
-        <v>63.01835920507119</v>
+        <v>63.01835920507117</v>
       </c>
       <c r="K43" t="n">
         <v>103.5585226489404</v>
       </c>
       <c r="L43" t="n">
-        <v>132.5192550391841</v>
+        <v>132.519255039184</v>
       </c>
       <c r="M43" t="n">
-        <v>139.7229738682066</v>
+        <v>139.7229738682065</v>
       </c>
       <c r="N43" t="n">
         <v>136.4006738458228</v>
@@ -34307,22 +34307,22 @@
         <v>125.9880993854246</v>
       </c>
       <c r="P43" t="n">
-        <v>107.8045841409627</v>
+        <v>107.8045841409626</v>
       </c>
       <c r="Q43" t="n">
-        <v>74.63830611262837</v>
+        <v>74.63830611262834</v>
       </c>
       <c r="R43" t="n">
-        <v>40.07828270905002</v>
+        <v>40.07828270905001</v>
       </c>
       <c r="S43" t="n">
         <v>15.53377839734106</v>
       </c>
       <c r="T43" t="n">
-        <v>3.808490269561972</v>
+        <v>3.80849026956197</v>
       </c>
       <c r="U43" t="n">
-        <v>0.04861902471781247</v>
+        <v>0.04861902471781245</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,34 +34359,34 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>1.987109217947441</v>
+        <v>1.98710921794744</v>
       </c>
       <c r="H44" t="n">
         <v>20.35048227830423</v>
       </c>
       <c r="I44" t="n">
-        <v>76.60802812491879</v>
+        <v>76.60802812491876</v>
       </c>
       <c r="J44" t="n">
-        <v>168.6534109867668</v>
+        <v>168.6534109867667</v>
       </c>
       <c r="K44" t="n">
         <v>252.7677441824819</v>
       </c>
       <c r="L44" t="n">
-        <v>313.580737911241</v>
+        <v>313.5807379112409</v>
       </c>
       <c r="M44" t="n">
-        <v>348.9189914659138</v>
+        <v>348.9189914659137</v>
       </c>
       <c r="N44" t="n">
-        <v>354.564865531407</v>
+        <v>354.5648655314069</v>
       </c>
       <c r="O44" t="n">
-        <v>334.8055482454421</v>
+        <v>334.8055482454428</v>
       </c>
       <c r="P44" t="n">
-        <v>285.7487894273647</v>
+        <v>285.7487894273646</v>
       </c>
       <c r="Q44" t="n">
         <v>214.5854405596218</v>
@@ -34395,10 +34395,10 @@
         <v>124.822749411891</v>
       </c>
       <c r="S44" t="n">
-        <v>45.28125130397736</v>
+        <v>45.28125130397733</v>
       </c>
       <c r="T44" t="n">
-        <v>8.698570601564926</v>
+        <v>8.698570601564924</v>
       </c>
       <c r="U44" t="n">
         <v>0.1589687374357952</v>
@@ -34444,7 +34444,7 @@
         <v>10.26824628639308</v>
       </c>
       <c r="I45" t="n">
-        <v>36.60569180208252</v>
+        <v>36.6056918020825</v>
       </c>
       <c r="J45" t="n">
         <v>100.4488161921859</v>
@@ -34453,34 +34453,34 @@
         <v>171.6830261244932</v>
       </c>
       <c r="L45" t="n">
-        <v>230.8490156257446</v>
+        <v>230.8490156257445</v>
       </c>
       <c r="M45" t="n">
-        <v>269.3899127906123</v>
+        <v>269.3899127906122</v>
       </c>
       <c r="N45" t="n">
-        <v>276.5198621874766</v>
+        <v>276.5198621874765</v>
       </c>
       <c r="O45" t="n">
-        <v>252.9616513614739</v>
+        <v>252.9616513614738</v>
       </c>
       <c r="P45" t="n">
-        <v>203.0240267107094</v>
+        <v>203.0240267107093</v>
       </c>
       <c r="Q45" t="n">
         <v>135.7161852494025</v>
       </c>
       <c r="R45" t="n">
-        <v>66.0114870255134</v>
+        <v>66.01148702551339</v>
       </c>
       <c r="S45" t="n">
         <v>19.74842099131456</v>
       </c>
       <c r="T45" t="n">
-        <v>4.285430670842524</v>
+        <v>4.285430670842523</v>
       </c>
       <c r="U45" t="n">
-        <v>0.06994718178741885</v>
+        <v>0.06994718178741882</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,25 +34517,25 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.8913487864932276</v>
+        <v>0.8913487864932274</v>
       </c>
       <c r="H46" t="n">
-        <v>7.924901029003429</v>
+        <v>7.924901029003427</v>
       </c>
       <c r="I46" t="n">
-        <v>26.80528896108725</v>
+        <v>26.80528896108724</v>
       </c>
       <c r="J46" t="n">
-        <v>63.01835920507119</v>
+        <v>63.01835920507117</v>
       </c>
       <c r="K46" t="n">
         <v>103.5585226489404</v>
       </c>
       <c r="L46" t="n">
-        <v>132.5192550391841</v>
+        <v>132.519255039184</v>
       </c>
       <c r="M46" t="n">
-        <v>139.7229738682066</v>
+        <v>139.7229738682065</v>
       </c>
       <c r="N46" t="n">
         <v>136.4006738458228</v>
@@ -34544,22 +34544,22 @@
         <v>125.9880993854246</v>
       </c>
       <c r="P46" t="n">
-        <v>107.8045841409627</v>
+        <v>107.8045841409626</v>
       </c>
       <c r="Q46" t="n">
-        <v>74.63830611262837</v>
+        <v>74.63830611262834</v>
       </c>
       <c r="R46" t="n">
-        <v>40.07828270905002</v>
+        <v>40.07828270905001</v>
       </c>
       <c r="S46" t="n">
         <v>15.53377839734106</v>
       </c>
       <c r="T46" t="n">
-        <v>3.808490269561972</v>
+        <v>3.80849026956197</v>
       </c>
       <c r="U46" t="n">
-        <v>0.04861902471781247</v>
+        <v>0.04861902471781245</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35418,10 +35418,10 @@
         <v>275.268695478618</v>
       </c>
       <c r="M11" t="n">
-        <v>311.487728566482</v>
+        <v>311.4877285664819</v>
       </c>
       <c r="N11" t="n">
-        <v>317.285242696961</v>
+        <v>317.2852426969609</v>
       </c>
       <c r="O11" t="n">
         <v>297.414588889418</v>
@@ -35488,7 +35488,7 @@
         <v>20.43330505208251</v>
       </c>
       <c r="J12" t="n">
-        <v>79.83770185885258</v>
+        <v>344.9308271163654</v>
       </c>
       <c r="K12" t="n">
         <v>149.2837922911599</v>
@@ -35500,7 +35500,7 @@
         <v>246.2931322782843</v>
       </c>
       <c r="N12" t="n">
-        <v>520.2699592314477</v>
+        <v>255.1768339739349</v>
       </c>
       <c r="O12" t="n">
         <v>229.7897616392516</v>
@@ -35512,7 +35512,7 @@
         <v>112.969146960424</v>
       </c>
       <c r="R12" t="n">
-        <v>42.33856763136926</v>
+        <v>42.33856763136924</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>42.38160322116931</v>
+        <v>121.0904079163419</v>
       </c>
       <c r="K13" t="n">
-        <v>82.59386819622841</v>
+        <v>82.5938681962284</v>
       </c>
       <c r="L13" t="n">
-        <v>251.8404774315084</v>
+        <v>110.6004951434828</v>
       </c>
       <c r="M13" t="n">
         <v>534.442728698631</v>
       </c>
       <c r="N13" t="n">
-        <v>115.6517728702224</v>
+        <v>517.705230286263</v>
       </c>
       <c r="O13" t="n">
-        <v>485.0064111831651</v>
+        <v>485.006411183165</v>
       </c>
       <c r="P13" t="n">
-        <v>401.3391416378324</v>
+        <v>214.719384418583</v>
       </c>
       <c r="Q13" t="n">
-        <v>202.9212659517818</v>
+        <v>50.0187433478434</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35655,10 +35655,10 @@
         <v>275.268695478618</v>
       </c>
       <c r="M14" t="n">
-        <v>311.487728566482</v>
+        <v>311.4877285664819</v>
       </c>
       <c r="N14" t="n">
-        <v>317.285242696961</v>
+        <v>317.2852426969609</v>
       </c>
       <c r="O14" t="n">
         <v>297.414588889418</v>
@@ -35722,10 +35722,10 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>20.43330505208251</v>
+        <v>44.12755337977124</v>
       </c>
       <c r="J15" t="n">
-        <v>79.83770185885258</v>
+        <v>214.715871430186</v>
       </c>
       <c r="K15" t="n">
         <v>149.2837922911599</v>
@@ -35746,7 +35746,7 @@
         <v>181.2531855058807</v>
       </c>
       <c r="Q15" t="n">
-        <v>271.5415648594462</v>
+        <v>112.969146960424</v>
       </c>
       <c r="R15" t="n">
         <v>148.85927498986</v>
@@ -35807,10 +35807,10 @@
         <v>121.0904079163419</v>
       </c>
       <c r="K16" t="n">
-        <v>82.59386819622841</v>
+        <v>332.3742814427153</v>
       </c>
       <c r="L16" t="n">
-        <v>173.1316727363358</v>
+        <v>110.6004951434828</v>
       </c>
       <c r="M16" t="n">
         <v>534.442728698631</v>
@@ -35819,7 +35819,7 @@
         <v>115.6517728702224</v>
       </c>
       <c r="O16" t="n">
-        <v>485.0064111831651</v>
+        <v>297.757175529531</v>
       </c>
       <c r="P16" t="n">
         <v>401.3391416378324</v>
@@ -35962,7 +35962,7 @@
         <v>44.12755337977124</v>
       </c>
       <c r="J18" t="n">
-        <v>321.2365787886767</v>
+        <v>214.715871430186</v>
       </c>
       <c r="K18" t="n">
         <v>149.2837922911599</v>
@@ -35986,7 +35986,7 @@
         <v>112.969146960424</v>
       </c>
       <c r="R18" t="n">
-        <v>42.33856763136924</v>
+        <v>148.85927498986</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36041,7 +36041,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>42.38160322116931</v>
+        <v>121.0904079163419</v>
       </c>
       <c r="K19" t="n">
         <v>332.3742814427153</v>
@@ -36050,19 +36050,19 @@
         <v>490.7912967507202</v>
       </c>
       <c r="M19" t="n">
-        <v>534.442728698631</v>
+        <v>117.1475339767207</v>
       </c>
       <c r="N19" t="n">
         <v>115.6517728702224</v>
       </c>
       <c r="O19" t="n">
-        <v>149.1777012214048</v>
+        <v>334.8615686442041</v>
       </c>
       <c r="P19" t="n">
         <v>401.3391416378324</v>
       </c>
       <c r="Q19" t="n">
-        <v>50.0187433478434</v>
+        <v>202.9212659517818</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36129,10 +36129,10 @@
         <v>275.268695478618</v>
       </c>
       <c r="M20" t="n">
-        <v>311.487728566482</v>
+        <v>311.4877285664819</v>
       </c>
       <c r="N20" t="n">
-        <v>317.285242696961</v>
+        <v>317.2852426969609</v>
       </c>
       <c r="O20" t="n">
         <v>297.414588889418</v>
@@ -36196,10 +36196,10 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>20.43330505208251</v>
+        <v>44.12755337977124</v>
       </c>
       <c r="J21" t="n">
-        <v>79.83770185885258</v>
+        <v>214.715871430186</v>
       </c>
       <c r="K21" t="n">
         <v>149.2837922911599</v>
@@ -36211,7 +36211,7 @@
         <v>246.2931322782843</v>
       </c>
       <c r="N21" t="n">
-        <v>520.2699592314477</v>
+        <v>255.1768339739349</v>
       </c>
       <c r="O21" t="n">
         <v>229.7897616392516</v>
@@ -36223,7 +36223,7 @@
         <v>112.969146960424</v>
       </c>
       <c r="R21" t="n">
-        <v>42.33856763136926</v>
+        <v>148.85927498986</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36281,7 +36281,7 @@
         <v>121.0904079163419</v>
       </c>
       <c r="K22" t="n">
-        <v>82.59386819622841</v>
+        <v>332.3742814427153</v>
       </c>
       <c r="L22" t="n">
         <v>490.7912967507202</v>
@@ -36290,10 +36290,10 @@
         <v>117.1475339767207</v>
       </c>
       <c r="N22" t="n">
-        <v>517.705230286263</v>
+        <v>115.6517728702224</v>
       </c>
       <c r="O22" t="n">
-        <v>182.5885244746502</v>
+        <v>334.8615686442041</v>
       </c>
       <c r="P22" t="n">
         <v>401.3391416378324</v>
@@ -36357,22 +36357,22 @@
         <v>42.06012558095527</v>
       </c>
       <c r="J23" t="n">
-        <v>389.006531386377</v>
+        <v>534.9195310038328</v>
       </c>
       <c r="K23" t="n">
         <v>217.0031433876726</v>
       </c>
       <c r="L23" t="n">
-        <v>275.268695478618</v>
+        <v>736.6011679940476</v>
       </c>
       <c r="M23" t="n">
-        <v>311.487728566482</v>
+        <v>311.4877285664819</v>
       </c>
       <c r="N23" t="n">
-        <v>317.285242696961</v>
+        <v>317.2852426969609</v>
       </c>
       <c r="O23" t="n">
-        <v>750.8836385195242</v>
+        <v>297.414588889418</v>
       </c>
       <c r="P23" t="n">
         <v>248.1734276171333</v>
@@ -36381,7 +36381,7 @@
         <v>178.4607659550238</v>
       </c>
       <c r="R23" t="n">
-        <v>243.5665220198734</v>
+        <v>89.79009951709455</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,10 +36433,10 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>20.43330505208251</v>
+        <v>44.12755337977124</v>
       </c>
       <c r="J24" t="n">
-        <v>344.9308271163653</v>
+        <v>214.7158714301859</v>
       </c>
       <c r="K24" t="n">
         <v>149.2837922911599</v>
@@ -36460,7 +36460,7 @@
         <v>112.969146960424</v>
       </c>
       <c r="R24" t="n">
-        <v>42.33856763136926</v>
+        <v>148.85927498986</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36518,10 +36518,10 @@
         <v>121.0904079163419</v>
       </c>
       <c r="K25" t="n">
-        <v>219.4819269776932</v>
+        <v>332.3742814427153</v>
       </c>
       <c r="L25" t="n">
-        <v>490.7912967507202</v>
+        <v>377.8989422856981</v>
       </c>
       <c r="M25" t="n">
         <v>534.8601405048236</v>
@@ -36530,7 +36530,7 @@
         <v>517.705230286263</v>
       </c>
       <c r="O25" t="n">
-        <v>485.0064111831651</v>
+        <v>485.006411183165</v>
       </c>
       <c r="P25" t="n">
         <v>401.3391416378324</v>
@@ -36594,7 +36594,7 @@
         <v>42.06012558095527</v>
       </c>
       <c r="J26" t="n">
-        <v>139.2334515011802</v>
+        <v>534.9195310038328</v>
       </c>
       <c r="K26" t="n">
         <v>217.0031433876726</v>
@@ -36603,10 +36603,10 @@
         <v>275.268695478618</v>
       </c>
       <c r="M26" t="n">
-        <v>311.487728566482</v>
+        <v>311.4877285664819</v>
       </c>
       <c r="N26" t="n">
-        <v>677.4867165708661</v>
+        <v>317.2852426969609</v>
       </c>
       <c r="O26" t="n">
         <v>297.414588889418</v>
@@ -36615,10 +36615,10 @@
         <v>248.1734276171333</v>
       </c>
       <c r="Q26" t="n">
-        <v>675.2778440992007</v>
+        <v>486.0168159676743</v>
       </c>
       <c r="R26" t="n">
-        <v>89.79009951709455</v>
+        <v>243.5665220198734</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36673,10 +36673,10 @@
         <v>20.43330505208251</v>
       </c>
       <c r="J27" t="n">
-        <v>79.83770185885258</v>
+        <v>79.83770185885257</v>
       </c>
       <c r="K27" t="n">
-        <v>149.2837922911599</v>
+        <v>414.3769175486727</v>
       </c>
       <c r="L27" t="n">
         <v>208.333928911515</v>
@@ -36691,13 +36691,13 @@
         <v>229.7897616392516</v>
       </c>
       <c r="P27" t="n">
-        <v>339.8256034049028</v>
+        <v>181.2531855058807</v>
       </c>
       <c r="Q27" t="n">
         <v>112.969146960424</v>
       </c>
       <c r="R27" t="n">
-        <v>148.85927498986</v>
+        <v>42.33856763136924</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36755,10 +36755,10 @@
         <v>121.0904079163419</v>
       </c>
       <c r="K28" t="n">
-        <v>219.4819269776932</v>
+        <v>332.3742814427153</v>
       </c>
       <c r="L28" t="n">
-        <v>490.7912967507202</v>
+        <v>377.8989422856981</v>
       </c>
       <c r="M28" t="n">
         <v>534.8601405048236</v>
@@ -36767,7 +36767,7 @@
         <v>517.705230286263</v>
       </c>
       <c r="O28" t="n">
-        <v>485.0064111831651</v>
+        <v>485.006411183165</v>
       </c>
       <c r="P28" t="n">
         <v>401.3391416378324</v>
@@ -36831,19 +36831,19 @@
         <v>42.06012558095527</v>
       </c>
       <c r="J29" t="n">
-        <v>462.3715083874107</v>
+        <v>534.9195310038328</v>
       </c>
       <c r="K29" t="n">
-        <v>750.8836385195242</v>
+        <v>678.3356159031021</v>
       </c>
       <c r="L29" t="n">
         <v>275.268695478618</v>
       </c>
       <c r="M29" t="n">
-        <v>311.487728566482</v>
+        <v>311.4877285664819</v>
       </c>
       <c r="N29" t="n">
-        <v>317.285242696961</v>
+        <v>317.2852426969609</v>
       </c>
       <c r="O29" t="n">
         <v>297.414588889418</v>
@@ -36907,10 +36907,10 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>20.43330505208251</v>
+        <v>44.12755337977124</v>
       </c>
       <c r="J30" t="n">
-        <v>79.83770185885258</v>
+        <v>79.83770185885257</v>
       </c>
       <c r="K30" t="n">
         <v>149.2837922911599</v>
@@ -36928,10 +36928,10 @@
         <v>229.7897616392516</v>
       </c>
       <c r="P30" t="n">
-        <v>339.8256034049028</v>
+        <v>181.2531855058807</v>
       </c>
       <c r="Q30" t="n">
-        <v>112.969146960424</v>
+        <v>247.8473165317573</v>
       </c>
       <c r="R30" t="n">
         <v>148.85927498986</v>
@@ -36992,19 +36992,19 @@
         <v>121.0904079163419</v>
       </c>
       <c r="K31" t="n">
-        <v>332.3742814427154</v>
+        <v>332.3742814427153</v>
       </c>
       <c r="L31" t="n">
         <v>490.7912967507202</v>
       </c>
       <c r="M31" t="n">
-        <v>534.8601405048236</v>
+        <v>421.9677860398015</v>
       </c>
       <c r="N31" t="n">
         <v>517.705230286263</v>
       </c>
       <c r="O31" t="n">
-        <v>372.1140567181428</v>
+        <v>485.006411183165</v>
       </c>
       <c r="P31" t="n">
         <v>401.3391416378324</v>
@@ -37068,7 +37068,7 @@
         <v>42.06012558095527</v>
       </c>
       <c r="J32" t="n">
-        <v>139.2334515011802</v>
+        <v>462.3715083874107</v>
       </c>
       <c r="K32" t="n">
         <v>750.8836385195242</v>
@@ -37077,16 +37077,16 @@
         <v>275.268695478618</v>
       </c>
       <c r="M32" t="n">
-        <v>311.487728566482</v>
+        <v>311.4877285664819</v>
       </c>
       <c r="N32" t="n">
-        <v>317.285242696961</v>
+        <v>317.2852426969609</v>
       </c>
       <c r="O32" t="n">
         <v>297.414588889418</v>
       </c>
       <c r="P32" t="n">
-        <v>571.3114845033639</v>
+        <v>248.1734276171333</v>
       </c>
       <c r="Q32" t="n">
         <v>178.4607659550238</v>
@@ -37144,10 +37144,10 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>20.43330505208251</v>
+        <v>44.12755337977124</v>
       </c>
       <c r="J33" t="n">
-        <v>79.83770185885258</v>
+        <v>214.7158714301859</v>
       </c>
       <c r="K33" t="n">
         <v>149.2837922911599</v>
@@ -37165,7 +37165,7 @@
         <v>229.7897616392516</v>
       </c>
       <c r="P33" t="n">
-        <v>339.8256034049028</v>
+        <v>181.2531855058807</v>
       </c>
       <c r="Q33" t="n">
         <v>112.969146960424</v>
@@ -37226,28 +37226,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>42.38160322116931</v>
+        <v>121.0904079163419</v>
       </c>
       <c r="K34" t="n">
-        <v>332.3742814427154</v>
+        <v>332.3742814427153</v>
       </c>
       <c r="L34" t="n">
         <v>490.7912967507202</v>
       </c>
       <c r="M34" t="n">
-        <v>500.676590734974</v>
+        <v>534.8601405048236</v>
       </c>
       <c r="N34" t="n">
         <v>517.705230286263</v>
       </c>
       <c r="O34" t="n">
-        <v>485.0064111831651</v>
+        <v>485.006411183165</v>
       </c>
       <c r="P34" t="n">
         <v>401.3391416378324</v>
       </c>
       <c r="Q34" t="n">
-        <v>202.9212659517818</v>
+        <v>90.02891148675971</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37314,10 +37314,10 @@
         <v>275.268695478618</v>
       </c>
       <c r="M35" t="n">
-        <v>311.487728566482</v>
+        <v>311.4877285664819</v>
       </c>
       <c r="N35" t="n">
-        <v>317.285242696961</v>
+        <v>317.2852426969609</v>
       </c>
       <c r="O35" t="n">
         <v>297.414588889418</v>
@@ -37381,10 +37381,10 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>20.43330505208251</v>
+        <v>44.12755337977124</v>
       </c>
       <c r="J36" t="n">
-        <v>344.9308271163654</v>
+        <v>214.715871430186</v>
       </c>
       <c r="K36" t="n">
         <v>149.2837922911599</v>
@@ -37408,7 +37408,7 @@
         <v>112.969146960424</v>
       </c>
       <c r="R36" t="n">
-        <v>42.33856763136926</v>
+        <v>148.85927498986</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37463,28 +37463,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>121.0904079163419</v>
+        <v>42.38160322116931</v>
       </c>
       <c r="K37" t="n">
-        <v>332.3742814427154</v>
+        <v>82.5938681962284</v>
       </c>
       <c r="L37" t="n">
-        <v>490.7912967507202</v>
+        <v>318.6049007742622</v>
       </c>
       <c r="M37" t="n">
-        <v>117.1475339767207</v>
+        <v>534.442728698631</v>
       </c>
       <c r="N37" t="n">
         <v>517.705230286263</v>
       </c>
       <c r="O37" t="n">
-        <v>401.6259919869577</v>
+        <v>485.006411183165</v>
       </c>
       <c r="P37" t="n">
-        <v>85.42378348297619</v>
+        <v>85.42378348297618</v>
       </c>
       <c r="Q37" t="n">
-        <v>50.01874334784341</v>
+        <v>50.0187433478434</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37551,10 +37551,10 @@
         <v>275.268695478618</v>
       </c>
       <c r="M38" t="n">
-        <v>311.487728566482</v>
+        <v>311.4877285664819</v>
       </c>
       <c r="N38" t="n">
-        <v>317.285242696961</v>
+        <v>317.2852426969609</v>
       </c>
       <c r="O38" t="n">
         <v>297.414588889418</v>
@@ -37618,10 +37618,10 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>20.43330505208251</v>
+        <v>44.12755337977124</v>
       </c>
       <c r="J39" t="n">
-        <v>79.83770185885258</v>
+        <v>214.715871430186</v>
       </c>
       <c r="K39" t="n">
         <v>149.2837922911599</v>
@@ -37636,7 +37636,7 @@
         <v>255.1768339739349</v>
       </c>
       <c r="O39" t="n">
-        <v>494.8828868967645</v>
+        <v>229.7897616392516</v>
       </c>
       <c r="P39" t="n">
         <v>181.2531855058807</v>
@@ -37645,7 +37645,7 @@
         <v>112.969146960424</v>
       </c>
       <c r="R39" t="n">
-        <v>42.33856763136926</v>
+        <v>148.85927498986</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37703,7 +37703,7 @@
         <v>121.0904079163419</v>
       </c>
       <c r="K40" t="n">
-        <v>332.3742814427154</v>
+        <v>332.3742814427153</v>
       </c>
       <c r="L40" t="n">
         <v>490.7912967507202</v>
@@ -37712,13 +37712,13 @@
         <v>117.1475339767207</v>
       </c>
       <c r="N40" t="n">
-        <v>281.4222884861171</v>
+        <v>115.6517728702224</v>
       </c>
       <c r="O40" t="n">
-        <v>485.0064111831651</v>
+        <v>334.8615686442041</v>
       </c>
       <c r="P40" t="n">
-        <v>85.42378348297619</v>
+        <v>401.3391416378324</v>
       </c>
       <c r="Q40" t="n">
         <v>202.9212659517818</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>42.06012558095529</v>
+        <v>42.06012558095526</v>
       </c>
       <c r="J41" t="n">
         <v>139.2334515011802</v>
       </c>
       <c r="K41" t="n">
-        <v>217.0031433876727</v>
+        <v>217.0031433876725</v>
       </c>
       <c r="L41" t="n">
-        <v>275.2686954786181</v>
+        <v>275.268695478618</v>
       </c>
       <c r="M41" t="n">
-        <v>311.487728566482</v>
+        <v>311.4877285664818</v>
       </c>
       <c r="N41" t="n">
-        <v>317.285242696961</v>
+        <v>317.2852426969609</v>
       </c>
       <c r="O41" t="n">
-        <v>297.414588889418</v>
+        <v>297.4145888894179</v>
       </c>
       <c r="P41" t="n">
-        <v>248.1734276171334</v>
+        <v>248.1734276171333</v>
       </c>
       <c r="Q41" t="n">
         <v>178.4607659550238</v>
       </c>
       <c r="R41" t="n">
-        <v>89.79009951709457</v>
+        <v>89.79009951709452</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,25 +37855,25 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>20.43330505208252</v>
+        <v>44.12755337977123</v>
       </c>
       <c r="J42" t="n">
-        <v>79.8377018588526</v>
+        <v>214.7158714301862</v>
       </c>
       <c r="K42" t="n">
-        <v>149.2837922911599</v>
+        <v>149.2837922911598</v>
       </c>
       <c r="L42" t="n">
-        <v>208.333928911515</v>
+        <v>208.3339289115149</v>
       </c>
       <c r="M42" t="n">
-        <v>246.2931322782843</v>
+        <v>246.2931322782842</v>
       </c>
       <c r="N42" t="n">
-        <v>520.2699592314477</v>
+        <v>255.1768339739348</v>
       </c>
       <c r="O42" t="n">
-        <v>229.7897616392517</v>
+        <v>229.7897616392516</v>
       </c>
       <c r="P42" t="n">
         <v>181.2531855058807</v>
@@ -37882,7 +37882,7 @@
         <v>112.969146960424</v>
       </c>
       <c r="R42" t="n">
-        <v>42.33856763136926</v>
+        <v>148.85927498986</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37937,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>42.38160322116933</v>
+        <v>42.3816032211693</v>
       </c>
       <c r="K43" t="n">
-        <v>82.59386819622843</v>
+        <v>82.59386819622839</v>
       </c>
       <c r="L43" t="n">
         <v>490.7912967507202</v>
       </c>
       <c r="M43" t="n">
-        <v>534.4427286986311</v>
+        <v>117.1475339767207</v>
       </c>
       <c r="N43" t="n">
-        <v>115.6517728702224</v>
+        <v>517.705230286263</v>
       </c>
       <c r="O43" t="n">
-        <v>485.0064111831651</v>
+        <v>485.006411183165</v>
       </c>
       <c r="P43" t="n">
-        <v>162.3883223186209</v>
+        <v>330.5325822284286</v>
       </c>
       <c r="Q43" t="n">
-        <v>202.9212659517818</v>
+        <v>50.0187433478434</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>42.06012558095529</v>
+        <v>42.06012558095526</v>
       </c>
       <c r="J44" t="n">
         <v>139.2334515011802</v>
       </c>
       <c r="K44" t="n">
-        <v>217.0031433876726</v>
+        <v>217.0031433876725</v>
       </c>
       <c r="L44" t="n">
-        <v>275.2686954786181</v>
+        <v>275.268695478618</v>
       </c>
       <c r="M44" t="n">
-        <v>311.487728566482</v>
+        <v>311.4877285664818</v>
       </c>
       <c r="N44" t="n">
-        <v>317.285242696961</v>
+        <v>317.2852426969609</v>
       </c>
       <c r="O44" t="n">
-        <v>297.414588889418</v>
+        <v>297.4145888894187</v>
       </c>
       <c r="P44" t="n">
-        <v>248.1734276171334</v>
+        <v>248.1734276171333</v>
       </c>
       <c r="Q44" t="n">
         <v>178.4607659550238</v>
       </c>
       <c r="R44" t="n">
-        <v>89.79009951709457</v>
+        <v>89.79009951709452</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,25 +38092,25 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>20.43330505208252</v>
+        <v>44.12755337977123</v>
       </c>
       <c r="J45" t="n">
-        <v>79.8377018588526</v>
+        <v>214.7158714301862</v>
       </c>
       <c r="K45" t="n">
-        <v>149.2837922911599</v>
+        <v>149.2837922911598</v>
       </c>
       <c r="L45" t="n">
-        <v>473.4270541690275</v>
+        <v>208.3339289115149</v>
       </c>
       <c r="M45" t="n">
-        <v>246.2931322782843</v>
+        <v>246.2931322782842</v>
       </c>
       <c r="N45" t="n">
-        <v>255.1768339739349</v>
+        <v>255.1768339739348</v>
       </c>
       <c r="O45" t="n">
-        <v>229.7897616392517</v>
+        <v>229.7897616392516</v>
       </c>
       <c r="P45" t="n">
         <v>181.2531855058807</v>
@@ -38119,7 +38119,7 @@
         <v>112.969146960424</v>
       </c>
       <c r="R45" t="n">
-        <v>42.33856763136926</v>
+        <v>148.85927498986</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38174,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>42.38160322116933</v>
+        <v>42.3816032211693</v>
       </c>
       <c r="K46" t="n">
-        <v>260.9382435989272</v>
+        <v>82.59386819622839</v>
       </c>
       <c r="L46" t="n">
-        <v>490.7912967507202</v>
+        <v>318.6049007742622</v>
       </c>
       <c r="M46" t="n">
-        <v>117.1475339767208</v>
+        <v>534.442728698631</v>
       </c>
       <c r="N46" t="n">
-        <v>115.6517728702224</v>
+        <v>517.705230286263</v>
       </c>
       <c r="O46" t="n">
-        <v>485.0064111831651</v>
+        <v>485.006411183165</v>
       </c>
       <c r="P46" t="n">
-        <v>401.3391416378324</v>
+        <v>85.42378348297616</v>
       </c>
       <c r="Q46" t="n">
-        <v>202.9212659517818</v>
+        <v>50.0187433478434</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
